--- a/movie_df.xlsx
+++ b/movie_df.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.103.97.45139"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="5404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5508" uniqueCount="5508">
   <si>
     <t>Logan Lucky</t>
   </si>
@@ -16242,6 +16242,318 @@
   </si>
   <si>
     <t>Everything Is Everything</t>
+  </si>
+  <si>
+    <t>Complete Unknown</t>
+  </si>
+  <si>
+    <t>This Beautiful Fantastic</t>
+  </si>
+  <si>
+    <t>Incarnate</t>
+  </si>
+  <si>
+    <t>The Innocents</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>Darkest Hour</t>
+  </si>
+  <si>
+    <t>The Hitman's Bodyguard</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Spider-Man: Homecoming</t>
+  </si>
+  <si>
+    <t>Blade Runner 2049</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy Vol. 2</t>
+  </si>
+  <si>
+    <t>The Greatest Showman</t>
+  </si>
+  <si>
+    <t>Jumanji: Welcome to the Jungle</t>
+  </si>
+  <si>
+    <t>Baywatch</t>
+  </si>
+  <si>
+    <t>Call Me by Your Name</t>
+  </si>
+  <si>
+    <t>Home Again</t>
+  </si>
+  <si>
+    <t>The Fate of the Furious</t>
+  </si>
+  <si>
+    <t>Get Out</t>
+  </si>
+  <si>
+    <t>Dunkirk</t>
+  </si>
+  <si>
+    <t>Coco</t>
+  </si>
+  <si>
+    <t>Baby Driver</t>
+  </si>
+  <si>
+    <t>The Boss Baby</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t>Alien: Covenant</t>
+  </si>
+  <si>
+    <t>John Wick: Chapter 2</t>
+  </si>
+  <si>
+    <t>Wonder</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Mother!</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: Dead Men Tell No Tales</t>
+  </si>
+  <si>
+    <t>The Shape of Water</t>
+  </si>
+  <si>
+    <t>Disobedience</t>
+  </si>
+  <si>
+    <t>Kong: Skull Island</t>
+  </si>
+  <si>
+    <t>Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>Kingsman: The Golden Circle</t>
+  </si>
+  <si>
+    <t>Three Billboards Outside Ebbing, Missouri</t>
+  </si>
+  <si>
+    <t>Star Wars: Episode VIII - The Last Jedi</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>I, Tonya</t>
+  </si>
+  <si>
+    <t>Atomic Blonde</t>
+  </si>
+  <si>
+    <t>Wind River</t>
+  </si>
+  <si>
+    <t>Murder on the Orient Express</t>
+  </si>
+  <si>
+    <t>King Arthur: Legend of the Sword</t>
+  </si>
+  <si>
+    <t>Lady Bird</t>
+  </si>
+  <si>
+    <t>The Killing of a Sacred Deer</t>
+  </si>
+  <si>
+    <t>February 19, 2018 (United Kingdom)</t>
+  </si>
+  <si>
+    <t>February 10, 2016 (France)</t>
+  </si>
+  <si>
+    <t>July 7, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>December 20, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>May 25, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>April 14, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>June 28, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>November 17, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>December 1, 2017 (United States)</t>
+  </si>
+  <si>
+    <t>Simon Aboud</t>
+  </si>
+  <si>
+    <t>Anne Fontaine</t>
+  </si>
+  <si>
+    <t>Michael Gracey</t>
+  </si>
+  <si>
+    <t>Seth Gordon</t>
+  </si>
+  <si>
+    <t>Hallie Meyers-Shyer</t>
+  </si>
+  <si>
+    <t>Lee Unkrich</t>
+  </si>
+  <si>
+    <t>Patty Jenkins</t>
+  </si>
+  <si>
+    <t>Martin McDonagh</t>
+  </si>
+  <si>
+    <t>Michael Pearce</t>
+  </si>
+  <si>
+    <t>Ronnie Christensen</t>
+  </si>
+  <si>
+    <t>Sabrina B. Karine</t>
+  </si>
+  <si>
+    <t>Eric Pearson</t>
+  </si>
+  <si>
+    <t>Tom O'Connor</t>
+  </si>
+  <si>
+    <t>Chase Palmer</t>
+  </si>
+  <si>
+    <t>Hampton Fancher</t>
+  </si>
+  <si>
+    <t>Jenny Bicks</t>
+  </si>
+  <si>
+    <t>Michael Berk</t>
+  </si>
+  <si>
+    <t>James Ivory</t>
+  </si>
+  <si>
+    <t>Gary Scott Thompson</t>
+  </si>
+  <si>
+    <t>Michael McCullers</t>
+  </si>
+  <si>
+    <t>Allan Heinberg</t>
+  </si>
+  <si>
+    <t>Jerry Siegel</t>
+  </si>
+  <si>
+    <t>Steven Rogers</t>
+  </si>
+  <si>
+    <t>Kurt Johnstad</t>
+  </si>
+  <si>
+    <t>Michael Green</t>
+  </si>
+  <si>
+    <t>Joby Harold</t>
+  </si>
+  <si>
+    <t>Erin Darke</t>
+  </si>
+  <si>
+    <t>Jessica Brown Findlay</t>
+  </si>
+  <si>
+    <t>Lou de Laâge</t>
+  </si>
+  <si>
+    <t>Bill Skarsgård</t>
+  </si>
+  <si>
+    <t>Harrison Ford</t>
+  </si>
+  <si>
+    <t>Armie Hammer</t>
+  </si>
+  <si>
+    <t>Daniel Kaluuya</t>
+  </si>
+  <si>
+    <t>Fionn Whitehead</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez</t>
+  </si>
+  <si>
+    <t>Ansel Elgort</t>
+  </si>
+  <si>
+    <t>Alec Baldwin</t>
+  </si>
+  <si>
+    <t>Gal Gadot</t>
+  </si>
+  <si>
+    <t>Sally Hawkins</t>
+  </si>
+  <si>
+    <t>Frances McDormand</t>
+  </si>
+  <si>
+    <t>Margot Robbie</t>
+  </si>
+  <si>
+    <t>Barry G. Bernson</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Ipso Facto Productions</t>
+  </si>
+  <si>
+    <t>IM Global</t>
+  </si>
+  <si>
+    <t>Black Bicycle Entertainment</t>
+  </si>
+  <si>
+    <t>Syncopy</t>
+  </si>
+  <si>
+    <t>Braven Films</t>
+  </si>
+  <si>
+    <t>Blueprint Pictures</t>
+  </si>
+  <si>
+    <t>Agile Films</t>
   </si>
 </sst>
 </file>
@@ -16823,7 +17135,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17181,10 +17496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O945"/>
+  <dimension ref="A1:O1102"/>
   <sheetViews>
-    <sheetView topLeftCell="A830" workbookViewId="0">
-      <selection activeCell="A838" sqref="A838:O945"/>
+    <sheetView topLeftCell="A929" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A946" sqref="A946:O1102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -61159,6 +61474,7297 @@
       </c>
       <c r="O945" s="11">
         <v>110</v>
+      </c>
+    </row>
+    <row r="946" spans="1:15">
+      <c r="A946" s="13" t="s">
+        <v>5404</v>
+      </c>
+      <c r="B946" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C946" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D946" s="13">
+        <v>2016</v>
+      </c>
+      <c r="E946" s="13" t="s">
+        <v>4939</v>
+      </c>
+      <c r="F946" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="G946" s="13">
+        <v>5800</v>
+      </c>
+      <c r="H946" s="13" t="s">
+        <v>2863</v>
+      </c>
+      <c r="I946" s="13" t="s">
+        <v>2863</v>
+      </c>
+      <c r="J946" s="13" t="s">
+        <v>5484</v>
+      </c>
+      <c r="K946" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L946" s="13"/>
+      <c r="M946" s="13">
+        <v>217473</v>
+      </c>
+      <c r="N946" s="13" t="s">
+        <v>4815</v>
+      </c>
+      <c r="O946" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="947" spans="1:15">
+      <c r="A947" s="13" t="s">
+        <v>5405</v>
+      </c>
+      <c r="B947" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C947" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D947" s="13">
+        <v>2016</v>
+      </c>
+      <c r="E947" s="13" t="s">
+        <v>5449</v>
+      </c>
+      <c r="F947" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G947" s="13">
+        <v>10000</v>
+      </c>
+      <c r="H947" s="13" t="s">
+        <v>5458</v>
+      </c>
+      <c r="I947" s="13" t="s">
+        <v>5458</v>
+      </c>
+      <c r="J947" s="13" t="s">
+        <v>5485</v>
+      </c>
+      <c r="K947" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L947" s="13"/>
+      <c r="M947" s="13">
+        <v>353808</v>
+      </c>
+      <c r="N947" s="13" t="s">
+        <v>5501</v>
+      </c>
+      <c r="O947" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="948" spans="1:15">
+      <c r="A948" s="13" t="s">
+        <v>5406</v>
+      </c>
+      <c r="B948" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C948" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D948" s="13">
+        <v>2016</v>
+      </c>
+      <c r="E948" s="13" t="s">
+        <v>5217</v>
+      </c>
+      <c r="F948" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="G948" s="13">
+        <v>12000</v>
+      </c>
+      <c r="H948" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="I948" s="13" t="s">
+        <v>5467</v>
+      </c>
+      <c r="J948" s="13" t="s">
+        <v>3277</v>
+      </c>
+      <c r="K948" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L948" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="M948" s="13">
+        <v>9037058</v>
+      </c>
+      <c r="N948" s="13" t="s">
+        <v>5502</v>
+      </c>
+      <c r="O948" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="949" spans="1:15">
+      <c r="A949" s="13" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B949" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C949" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D949" s="13">
+        <v>2016</v>
+      </c>
+      <c r="E949" s="13" t="s">
+        <v>5450</v>
+      </c>
+      <c r="F949" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="G949" s="13">
+        <v>10000</v>
+      </c>
+      <c r="H949" s="13" t="s">
+        <v>5459</v>
+      </c>
+      <c r="I949" s="13" t="s">
+        <v>5468</v>
+      </c>
+      <c r="J949" s="13" t="s">
+        <v>5486</v>
+      </c>
+      <c r="K949" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L949" s="13"/>
+      <c r="M949" s="13">
+        <v>7400324</v>
+      </c>
+      <c r="N949" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O949" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="950" spans="1:15">
+      <c r="A950" s="13" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B950" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C950" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D950" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E950" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F950" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="G950" s="13">
+        <v>628000</v>
+      </c>
+      <c r="H950" s="13" t="s">
+        <v>976</v>
+      </c>
+      <c r="I950" s="13" t="s">
+        <v>5469</v>
+      </c>
+      <c r="J950" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K950" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L950" s="13">
+        <v>180000000</v>
+      </c>
+      <c r="M950" s="13">
+        <v>853983911</v>
+      </c>
+      <c r="N950" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O950" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="951" spans="1:15">
+      <c r="A951" s="13" t="s">
+        <v>5409</v>
+      </c>
+      <c r="B951" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C951" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D951" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E951" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F951" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G951" s="13">
+        <v>179000</v>
+      </c>
+      <c r="H951" s="13" t="s">
+        <v>2878</v>
+      </c>
+      <c r="I951" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J951" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K951" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L951" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M951" s="13">
+        <v>150847274</v>
+      </c>
+      <c r="N951" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O951" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="952" spans="1:15">
+      <c r="A952" s="13" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B952" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C952" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D952" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E952" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F952" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G952" s="13">
+        <v>203000</v>
+      </c>
+      <c r="H952" s="13" t="s">
+        <v>4275</v>
+      </c>
+      <c r="I952" s="13" t="s">
+        <v>5470</v>
+      </c>
+      <c r="J952" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K952" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L952" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M952" s="13">
+        <v>176600207</v>
+      </c>
+      <c r="N952" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O952" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="953" spans="1:15">
+      <c r="A953" s="13" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B953" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C953" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D953" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E953" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="F953" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="G953" s="13">
+        <v>478000</v>
+      </c>
+      <c r="H953" s="13" t="s">
+        <v>977</v>
+      </c>
+      <c r="I953" s="13" t="s">
+        <v>5471</v>
+      </c>
+      <c r="J953" s="13" t="s">
+        <v>5487</v>
+      </c>
+      <c r="K953" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L953" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="M953" s="13">
+        <v>701796444</v>
+      </c>
+      <c r="N953" s="13" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O953" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="954" spans="1:15">
+      <c r="A954" s="13" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B954" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C954" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D954" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E954" s="13" t="s">
+        <v>5451</v>
+      </c>
+      <c r="F954" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G954" s="13">
+        <v>540000</v>
+      </c>
+      <c r="H954" s="13" t="s">
+        <v>975</v>
+      </c>
+      <c r="I954" s="13" t="s">
+        <v>3989</v>
+      </c>
+      <c r="J954" s="13" t="s">
+        <v>1550</v>
+      </c>
+      <c r="K954" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L954" s="13">
+        <v>175000000</v>
+      </c>
+      <c r="M954" s="13">
+        <v>880166924</v>
+      </c>
+      <c r="N954" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O954" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="955" spans="1:15">
+      <c r="A955" s="13" t="s">
+        <v>5413</v>
+      </c>
+      <c r="B955" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C955" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D955" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E955" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="F955" s="13">
+        <v>8</v>
+      </c>
+      <c r="G955" s="13">
+        <v>486000</v>
+      </c>
+      <c r="H955" s="13" t="s">
+        <v>4784</v>
+      </c>
+      <c r="I955" s="13" t="s">
+        <v>5472</v>
+      </c>
+      <c r="J955" s="13" t="s">
+        <v>5488</v>
+      </c>
+      <c r="K955" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L955" s="13">
+        <v>150000000</v>
+      </c>
+      <c r="M955" s="13">
+        <v>259334548</v>
+      </c>
+      <c r="N955" s="13" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O955" s="13">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="956" spans="1:15">
+      <c r="A956" s="13" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B956" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C956" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D956" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E956" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="F956" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G956" s="13">
+        <v>596000</v>
+      </c>
+      <c r="H956" s="13" t="s">
+        <v>3594</v>
+      </c>
+      <c r="I956" s="13" t="s">
+        <v>3594</v>
+      </c>
+      <c r="J956" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K956" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L956" s="13">
+        <v>200000000</v>
+      </c>
+      <c r="M956" s="13">
+        <v>863756051</v>
+      </c>
+      <c r="N956" s="13" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O956" s="13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="957" spans="1:15">
+      <c r="A957" s="13" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B957" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C957" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D957" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E957" s="13" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F957" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G957" s="13">
+        <v>251000</v>
+      </c>
+      <c r="H957" s="13" t="s">
+        <v>5460</v>
+      </c>
+      <c r="I957" s="13" t="s">
+        <v>5473</v>
+      </c>
+      <c r="J957" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K957" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L957" s="13">
+        <v>84000000</v>
+      </c>
+      <c r="M957" s="13">
+        <v>438006904</v>
+      </c>
+      <c r="N957" s="13" t="s">
+        <v>2226</v>
+      </c>
+      <c r="O957" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="958" spans="1:15">
+      <c r="A958" s="13" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B958" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C958" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D958" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E958" s="13" t="s">
+        <v>5452</v>
+      </c>
+      <c r="F958" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G958" s="13">
+        <v>336000</v>
+      </c>
+      <c r="H958" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="I958" s="13" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J958" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K958" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L958" s="13">
+        <v>90000000</v>
+      </c>
+      <c r="M958" s="13">
+        <v>962542945</v>
+      </c>
+      <c r="N958" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O958" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="959" spans="1:15">
+      <c r="A959" s="13" t="s">
+        <v>5417</v>
+      </c>
+      <c r="B959" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C959" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D959" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E959" s="13" t="s">
+        <v>5453</v>
+      </c>
+      <c r="F959" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="G959" s="13">
+        <v>170000</v>
+      </c>
+      <c r="H959" s="13" t="s">
+        <v>5461</v>
+      </c>
+      <c r="I959" s="13" t="s">
+        <v>5474</v>
+      </c>
+      <c r="J959" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K959" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L959" s="13">
+        <v>69000000</v>
+      </c>
+      <c r="M959" s="13">
+        <v>177856751</v>
+      </c>
+      <c r="N959" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O959" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="960" spans="1:15">
+      <c r="A960" s="13" t="s">
+        <v>5418</v>
+      </c>
+      <c r="B960" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C960" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D960" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E960" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F960" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="G960" s="13">
+        <v>228000</v>
+      </c>
+      <c r="H960" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="I960" s="13" t="s">
+        <v>5475</v>
+      </c>
+      <c r="J960" s="13" t="s">
+        <v>5489</v>
+      </c>
+      <c r="K960" s="13" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L960" s="13"/>
+      <c r="M960" s="13">
+        <v>41888660</v>
+      </c>
+      <c r="N960" s="13" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O960" s="13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="961" spans="1:15">
+      <c r="A961" s="13" t="s">
+        <v>5419</v>
+      </c>
+      <c r="B961" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C961" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D961" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E961" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="F961" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G961" s="13">
+        <v>30000</v>
+      </c>
+      <c r="H961" s="13" t="s">
+        <v>5462</v>
+      </c>
+      <c r="I961" s="13" t="s">
+        <v>5462</v>
+      </c>
+      <c r="J961" s="13" t="s">
+        <v>3185</v>
+      </c>
+      <c r="K961" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L961" s="13">
+        <v>12000000</v>
+      </c>
+      <c r="M961" s="13">
+        <v>37270721</v>
+      </c>
+      <c r="N961" s="13" t="s">
+        <v>5503</v>
+      </c>
+      <c r="O961" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="962" spans="1:15">
+      <c r="A962" s="13" t="s">
+        <v>5420</v>
+      </c>
+      <c r="B962" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C962" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D962" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E962" s="13" t="s">
+        <v>5454</v>
+      </c>
+      <c r="F962" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G962" s="13">
+        <v>214000</v>
+      </c>
+      <c r="H962" s="13" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I962" s="13" t="s">
+        <v>5476</v>
+      </c>
+      <c r="J962" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K962" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L962" s="13">
+        <v>250000000</v>
+      </c>
+      <c r="M962" s="13">
+        <v>1236005118</v>
+      </c>
+      <c r="N962" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O962" s="13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="963" spans="1:15">
+      <c r="A963" s="13" t="s">
+        <v>5421</v>
+      </c>
+      <c r="B963" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C963" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D963" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E963" s="13" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F963" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="G963" s="13">
+        <v>517000</v>
+      </c>
+      <c r="H963" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="I963" s="13" t="s">
+        <v>985</v>
+      </c>
+      <c r="J963" s="13" t="s">
+        <v>5490</v>
+      </c>
+      <c r="K963" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L963" s="13">
+        <v>4500000</v>
+      </c>
+      <c r="M963" s="13">
+        <v>255589157</v>
+      </c>
+      <c r="N963" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O963" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="964" spans="1:15">
+      <c r="A964" s="13" t="s">
+        <v>5422</v>
+      </c>
+      <c r="B964" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C964" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D964" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E964" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F964" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="G964" s="13">
+        <v>582000</v>
+      </c>
+      <c r="H964" s="13" t="s">
+        <v>2879</v>
+      </c>
+      <c r="I964" s="13" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J964" s="13" t="s">
+        <v>5491</v>
+      </c>
+      <c r="K964" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L964" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="M964" s="13">
+        <v>527016307</v>
+      </c>
+      <c r="N964" s="13" t="s">
+        <v>5504</v>
+      </c>
+      <c r="O964" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="965" spans="1:15">
+      <c r="A965" s="13" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B965" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C965" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D965" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E965" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="F965" s="13">
+        <v>8.4</v>
+      </c>
+      <c r="G965" s="13">
+        <v>417000</v>
+      </c>
+      <c r="H965" s="13" t="s">
+        <v>5463</v>
+      </c>
+      <c r="I965" s="13" t="s">
+        <v>5463</v>
+      </c>
+      <c r="J965" s="13" t="s">
+        <v>5492</v>
+      </c>
+      <c r="K965" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L965" s="13">
+        <v>175000000</v>
+      </c>
+      <c r="M965" s="13">
+        <v>807817888</v>
+      </c>
+      <c r="N965" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O965" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="966" spans="1:15">
+      <c r="A966" s="13" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B966" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C966" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D966" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E966" s="13" t="s">
+        <v>5455</v>
+      </c>
+      <c r="F966" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G966" s="13">
+        <v>466000</v>
+      </c>
+      <c r="H966" s="13" t="s">
+        <v>4794</v>
+      </c>
+      <c r="I966" s="13" t="s">
+        <v>4794</v>
+      </c>
+      <c r="J966" s="13" t="s">
+        <v>5493</v>
+      </c>
+      <c r="K966" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L966" s="13">
+        <v>34000000</v>
+      </c>
+      <c r="M966" s="13">
+        <v>226945087</v>
+      </c>
+      <c r="N966" s="13" t="s">
+        <v>4421</v>
+      </c>
+      <c r="O966" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="967" spans="1:15">
+      <c r="A967" s="13" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B967" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C967" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D967" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E967" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F967" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G967" s="13">
+        <v>114000</v>
+      </c>
+      <c r="H967" s="13" t="s">
+        <v>4379</v>
+      </c>
+      <c r="I967" s="13" t="s">
+        <v>5477</v>
+      </c>
+      <c r="J967" s="13" t="s">
+        <v>5494</v>
+      </c>
+      <c r="K967" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L967" s="13">
+        <v>125000000</v>
+      </c>
+      <c r="M967" s="13">
+        <v>527965936</v>
+      </c>
+      <c r="N967" s="13" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O967" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="968" spans="1:15">
+      <c r="A968" s="13" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B968" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C968" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D968" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E968" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F968" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="G968" s="13">
+        <v>674000</v>
+      </c>
+      <c r="H968" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="I968" s="13" t="s">
+        <v>980</v>
+      </c>
+      <c r="J968" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="K968" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L968" s="13">
+        <v>97000000</v>
+      </c>
+      <c r="M968" s="13">
+        <v>619179950</v>
+      </c>
+      <c r="N968" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O968" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="969" spans="1:15">
+      <c r="A969" s="13" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B969" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C969" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D969" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E969" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="F969" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G969" s="13">
+        <v>600000</v>
+      </c>
+      <c r="H969" s="13" t="s">
+        <v>5464</v>
+      </c>
+      <c r="I969" s="13" t="s">
+        <v>5478</v>
+      </c>
+      <c r="J969" s="13" t="s">
+        <v>5495</v>
+      </c>
+      <c r="K969" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L969" s="13">
+        <v>149000000</v>
+      </c>
+      <c r="M969" s="13">
+        <v>822824522</v>
+      </c>
+      <c r="N969" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O969" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="970" spans="1:15">
+      <c r="A970" s="13" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B970" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C970" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D970" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E970" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F970" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G970" s="13">
+        <v>261000</v>
+      </c>
+      <c r="H970" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="I970" s="13" t="s">
+        <v>2970</v>
+      </c>
+      <c r="J970" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K970" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L970" s="13">
+        <v>97000000</v>
+      </c>
+      <c r="M970" s="13">
+        <v>240891763</v>
+      </c>
+      <c r="N970" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O970" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="971" spans="1:15">
+      <c r="A971" s="13" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B971" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C971" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D971" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E971" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F971" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G971" s="13">
+        <v>385000</v>
+      </c>
+      <c r="H971" s="13" t="s">
+        <v>971</v>
+      </c>
+      <c r="I971" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J971" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="K971" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L971" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="M971" s="13">
+        <v>171547802</v>
+      </c>
+      <c r="N971" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O971" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="972" spans="1:15">
+      <c r="A972" s="13" t="s">
+        <v>5430</v>
+      </c>
+      <c r="B972" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C972" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D972" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E972" s="13" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F972" s="13">
+        <v>8</v>
+      </c>
+      <c r="G972" s="13">
+        <v>150000</v>
+      </c>
+      <c r="H972" s="13" t="s">
+        <v>3088</v>
+      </c>
+      <c r="I972" s="13" t="s">
+        <v>3088</v>
+      </c>
+      <c r="J972" s="13" t="s">
+        <v>2131</v>
+      </c>
+      <c r="K972" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L972" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="M972" s="13">
+        <v>306209289</v>
+      </c>
+      <c r="N972" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O972" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="973" spans="1:15">
+      <c r="A973" s="13" t="s">
+        <v>5431</v>
+      </c>
+      <c r="B973" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C973" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D973" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E973" s="13" t="s">
+        <v>5456</v>
+      </c>
+      <c r="F973" s="13">
+        <v>6.1</v>
+      </c>
+      <c r="G973" s="13">
+        <v>418000</v>
+      </c>
+      <c r="H973" s="13" t="s">
+        <v>2747</v>
+      </c>
+      <c r="I973" s="13" t="s">
+        <v>5479</v>
+      </c>
+      <c r="J973" s="13" t="s">
+        <v>3177</v>
+      </c>
+      <c r="K973" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L973" s="13">
+        <v>300000000</v>
+      </c>
+      <c r="M973" s="13">
+        <v>657926987</v>
+      </c>
+      <c r="N973" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O973" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="974" spans="1:15">
+      <c r="A974" s="13" t="s">
+        <v>5432</v>
+      </c>
+      <c r="B974" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C974" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D974" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E974" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F974" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G974" s="13">
+        <v>200000</v>
+      </c>
+      <c r="H974" s="13" t="s">
+        <v>4285</v>
+      </c>
+      <c r="I974" s="13" t="s">
+        <v>4285</v>
+      </c>
+      <c r="J974" s="13" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K974" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L974" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M974" s="13">
+        <v>44516999</v>
+      </c>
+      <c r="N974" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O974" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="975" spans="1:15">
+      <c r="A975" s="13" t="s">
+        <v>5433</v>
+      </c>
+      <c r="B975" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C975" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D975" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E975" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="F975" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G975" s="13">
+        <v>275000</v>
+      </c>
+      <c r="H975" s="13" t="s">
+        <v>2003</v>
+      </c>
+      <c r="I975" s="13" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J975" s="13" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K975" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L975" s="13">
+        <v>230000000</v>
+      </c>
+      <c r="M975" s="13">
+        <v>794881442</v>
+      </c>
+      <c r="N975" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O975" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="976" spans="1:15">
+      <c r="A976" s="13" t="s">
+        <v>5434</v>
+      </c>
+      <c r="B976" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C976" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D976" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E976" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F976" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="G976" s="13">
+        <v>386000</v>
+      </c>
+      <c r="H976" s="13" t="s">
+        <v>2750</v>
+      </c>
+      <c r="I976" s="13" t="s">
+        <v>2750</v>
+      </c>
+      <c r="J976" s="13" t="s">
+        <v>5496</v>
+      </c>
+      <c r="K976" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L976" s="13">
+        <v>19400000</v>
+      </c>
+      <c r="M976" s="13">
+        <v>195333312</v>
+      </c>
+      <c r="N976" s="13" t="s">
+        <v>4728</v>
+      </c>
+      <c r="O976" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="977" spans="1:15">
+      <c r="A977" s="13" t="s">
+        <v>5435</v>
+      </c>
+      <c r="B977" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C977" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D977" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E977" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F977" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G977" s="13">
+        <v>27000</v>
+      </c>
+      <c r="H977" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="I977" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="J977" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K977" s="13" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L977" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="M977" s="13">
+        <v>8003180</v>
+      </c>
+      <c r="N977" s="13" t="s">
+        <v>5505</v>
+      </c>
+      <c r="O977" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="978" spans="1:15">
+      <c r="A978" s="13" t="s">
+        <v>5436</v>
+      </c>
+      <c r="B978" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C978" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D978" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E978" s="13" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F978" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G978" s="13">
+        <v>293000</v>
+      </c>
+      <c r="H978" s="13" t="s">
+        <v>3939</v>
+      </c>
+      <c r="I978" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="J978" s="13" t="s">
+        <v>4810</v>
+      </c>
+      <c r="K978" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L978" s="13">
+        <v>185000000</v>
+      </c>
+      <c r="M978" s="13">
+        <v>566652812</v>
+      </c>
+      <c r="N978" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O978" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="979" spans="1:15">
+      <c r="A979" s="13" t="s">
+        <v>5437</v>
+      </c>
+      <c r="B979" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C979" s="13" t="s">
+        <v>2567</v>
+      </c>
+      <c r="D979" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E979" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F979" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="G979" s="13">
+        <v>283000</v>
+      </c>
+      <c r="H979" s="13" t="s">
+        <v>2794</v>
+      </c>
+      <c r="I979" s="13" t="s">
+        <v>3088</v>
+      </c>
+      <c r="J979" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K979" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L979" s="13">
+        <v>160000000</v>
+      </c>
+      <c r="M979" s="13">
+        <v>1264434525</v>
+      </c>
+      <c r="N979" s="13" t="s">
+        <v>5113</v>
+      </c>
+      <c r="O979" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="980" spans="1:15">
+      <c r="A980" s="13" t="s">
+        <v>5438</v>
+      </c>
+      <c r="B980" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C980" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D980" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E980" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F980" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G980" s="13">
+        <v>286000</v>
+      </c>
+      <c r="H980" s="13" t="s">
+        <v>3971</v>
+      </c>
+      <c r="I980" s="13" t="s">
+        <v>4016</v>
+      </c>
+      <c r="J980" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="K980" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L980" s="13">
+        <v>104000000</v>
+      </c>
+      <c r="M980" s="13">
+        <v>410902662</v>
+      </c>
+      <c r="N980" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O980" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="981" spans="1:15">
+      <c r="A981" s="13" t="s">
+        <v>5439</v>
+      </c>
+      <c r="B981" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C981" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D981" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E981" s="13" t="s">
+        <v>5457</v>
+      </c>
+      <c r="F981" s="13">
+        <v>8.1</v>
+      </c>
+      <c r="G981" s="13">
+        <v>456000</v>
+      </c>
+      <c r="H981" s="13" t="s">
+        <v>5465</v>
+      </c>
+      <c r="I981" s="13" t="s">
+        <v>5465</v>
+      </c>
+      <c r="J981" s="13" t="s">
+        <v>5497</v>
+      </c>
+      <c r="K981" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L981" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="M981" s="13">
+        <v>160192267</v>
+      </c>
+      <c r="N981" s="13" t="s">
+        <v>5506</v>
+      </c>
+      <c r="O981" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="982" spans="1:15">
+      <c r="A982" s="13" t="s">
+        <v>5440</v>
+      </c>
+      <c r="B982" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C982" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D982" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E982" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F982" s="13">
+        <v>7</v>
+      </c>
+      <c r="G982" s="13">
+        <v>581000</v>
+      </c>
+      <c r="H982" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="I982" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="J982" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K982" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L982" s="13">
+        <v>317000000</v>
+      </c>
+      <c r="M982" s="13">
+        <v>1332698830</v>
+      </c>
+      <c r="N982" s="13" t="s">
+        <v>1737</v>
+      </c>
+      <c r="O982" s="13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="983" spans="1:15">
+      <c r="A983" s="13" t="s">
+        <v>5441</v>
+      </c>
+      <c r="B983" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C983" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D983" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E983" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F983" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G983" s="13">
+        <v>11000</v>
+      </c>
+      <c r="H983" s="13" t="s">
+        <v>5466</v>
+      </c>
+      <c r="I983" s="13" t="s">
+        <v>5466</v>
+      </c>
+      <c r="J983" s="13" t="s">
+        <v>1511</v>
+      </c>
+      <c r="K983" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L983" s="13"/>
+      <c r="M983" s="13">
+        <v>1744071</v>
+      </c>
+      <c r="N983" s="13" t="s">
+        <v>5507</v>
+      </c>
+      <c r="O983" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="984" spans="1:15">
+      <c r="A984" s="13" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B984" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C984" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D984" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E984" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F984" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G984" s="13">
+        <v>193000</v>
+      </c>
+      <c r="H984" s="13" t="s">
+        <v>4566</v>
+      </c>
+      <c r="I984" s="13" t="s">
+        <v>5480</v>
+      </c>
+      <c r="J984" s="13" t="s">
+        <v>5498</v>
+      </c>
+      <c r="K984" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L984" s="13">
+        <v>11000000</v>
+      </c>
+      <c r="M984" s="13">
+        <v>53939297</v>
+      </c>
+      <c r="N984" s="13" t="s">
+        <v>5383</v>
+      </c>
+      <c r="O984" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="985" spans="1:15">
+      <c r="A985" s="13" t="s">
+        <v>5443</v>
+      </c>
+      <c r="B985" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C985" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D985" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E985" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F985" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G985" s="13">
+        <v>182000</v>
+      </c>
+      <c r="H985" s="13" t="s">
+        <v>781</v>
+      </c>
+      <c r="I985" s="13" t="s">
+        <v>5481</v>
+      </c>
+      <c r="J985" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="K985" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L985" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M985" s="13">
+        <v>100014025</v>
+      </c>
+      <c r="N985" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O985" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="986" spans="1:15">
+      <c r="A986" s="13" t="s">
+        <v>5444</v>
+      </c>
+      <c r="B986" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C986" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D986" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E986" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F986" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="G986" s="13">
+        <v>217000</v>
+      </c>
+      <c r="H986" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="I986" s="13" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J986" s="13" t="s">
+        <v>4045</v>
+      </c>
+      <c r="K986" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L986" s="13">
+        <v>11000000</v>
+      </c>
+      <c r="M986" s="13">
+        <v>43980821</v>
+      </c>
+      <c r="N986" s="13" t="s">
+        <v>1811</v>
+      </c>
+      <c r="O986" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="987" spans="1:15">
+      <c r="A987" s="13" t="s">
+        <v>5445</v>
+      </c>
+      <c r="B987" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C987" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D987" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E987" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F987" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G987" s="13">
+        <v>221000</v>
+      </c>
+      <c r="H987" s="13" t="s">
+        <v>4292</v>
+      </c>
+      <c r="I987" s="13" t="s">
+        <v>5482</v>
+      </c>
+      <c r="J987" s="13" t="s">
+        <v>4292</v>
+      </c>
+      <c r="K987" s="13" t="s">
+        <v>5500</v>
+      </c>
+      <c r="L987" s="13">
+        <v>55000000</v>
+      </c>
+      <c r="M987" s="13">
+        <v>352794081</v>
+      </c>
+      <c r="N987" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O987" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="988" spans="1:15">
+      <c r="A988" s="13" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B988" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C988" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D988" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E988" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F988" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G988" s="13">
+        <v>200000</v>
+      </c>
+      <c r="H988" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="I988" s="13" t="s">
+        <v>5483</v>
+      </c>
+      <c r="J988" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K988" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L988" s="13">
+        <v>175000000</v>
+      </c>
+      <c r="M988" s="13">
+        <v>148675066</v>
+      </c>
+      <c r="N988" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O988" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="989" spans="1:15">
+      <c r="A989" s="13" t="s">
+        <v>5447</v>
+      </c>
+      <c r="B989" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C989" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D989" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E989" s="13" t="s">
+        <v>5457</v>
+      </c>
+      <c r="F989" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G989" s="13">
+        <v>254000</v>
+      </c>
+      <c r="H989" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="I989" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="J989" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="K989" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L989" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="M989" s="13">
+        <v>78966486</v>
+      </c>
+      <c r="N989" s="13" t="s">
+        <v>4717</v>
+      </c>
+      <c r="O989" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="990" spans="1:15">
+      <c r="A990" s="13" t="s">
+        <v>5448</v>
+      </c>
+      <c r="B990" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C990" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D990" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E990" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F990" s="13">
+        <v>7</v>
+      </c>
+      <c r="G990" s="13">
+        <v>132000</v>
+      </c>
+      <c r="H990" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="I990" s="13" t="s">
+        <v>809</v>
+      </c>
+      <c r="J990" s="13" t="s">
+        <v>5499</v>
+      </c>
+      <c r="K990" s="13" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L990" s="13"/>
+      <c r="M990" s="13">
+        <v>7027336</v>
+      </c>
+      <c r="N990" s="13" t="s">
+        <v>4714</v>
+      </c>
+      <c r="O990" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="991" spans="1:15">
+      <c r="A991" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B991" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C991" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D991" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E991" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F991" s="13">
+        <v>7</v>
+      </c>
+      <c r="G991" s="13">
+        <v>137000</v>
+      </c>
+      <c r="H991" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I991" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J991" s="13" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K991" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L991" s="13">
+        <v>29000000</v>
+      </c>
+      <c r="M991" s="13">
+        <v>48453605</v>
+      </c>
+      <c r="N991" s="13" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O991" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="992" spans="1:15">
+      <c r="A992" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B992" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C992" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D992" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E992" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F992" s="13">
+        <v>4.6</v>
+      </c>
+      <c r="G992" s="13">
+        <v>95000</v>
+      </c>
+      <c r="H992" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="I992" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J992" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K992" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L992" s="13">
+        <v>55000000</v>
+      </c>
+      <c r="M992" s="13">
+        <v>381545846</v>
+      </c>
+      <c r="N992" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O992" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="993" spans="1:15">
+      <c r="A993" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B993" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C993" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D993" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E993" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F993" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G993" s="13">
+        <v>124000</v>
+      </c>
+      <c r="H993" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="I993" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J993" s="13" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K993" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L993" s="13">
+        <v>4800000</v>
+      </c>
+      <c r="M993" s="13">
+        <v>125479266</v>
+      </c>
+      <c r="N993" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O993" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="994" spans="1:15">
+      <c r="A994" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B994" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C994" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D994" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E994" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F994" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="G994" s="13">
+        <v>140000</v>
+      </c>
+      <c r="H994" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I994" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J994" s="13" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K994" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L994" s="13">
+        <v>217000000</v>
+      </c>
+      <c r="M994" s="13">
+        <v>605425157</v>
+      </c>
+      <c r="N994" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O994" s="13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="995" spans="1:15">
+      <c r="A995" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B995" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C995" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D995" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E995" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F995" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G995" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H995" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="I995" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J995" s="13" t="s">
+        <v>1256</v>
+      </c>
+      <c r="K995" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L995" s="13">
+        <v>4500000</v>
+      </c>
+      <c r="M995" s="13">
+        <v>3283369</v>
+      </c>
+      <c r="N995" s="13" t="s">
+        <v>1598</v>
+      </c>
+      <c r="O995" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="996" spans="1:15">
+      <c r="A996" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B996" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C996" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D996" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E996" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F996" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G996" s="13">
+        <v>202000</v>
+      </c>
+      <c r="H996" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="I996" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J996" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K996" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L996" s="13">
+        <v>110000000</v>
+      </c>
+      <c r="M996" s="13">
+        <v>169846945</v>
+      </c>
+      <c r="N996" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O996" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="997" spans="1:15">
+      <c r="A997" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B997" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C997" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D997" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E997" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F997" s="13">
+        <v>6</v>
+      </c>
+      <c r="G997" s="13">
+        <v>5400</v>
+      </c>
+      <c r="H997" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="I997" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J997" s="13" t="s">
+        <v>1258</v>
+      </c>
+      <c r="K997" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L997" s="13"/>
+      <c r="M997" s="13">
+        <v>6335171</v>
+      </c>
+      <c r="N997" s="13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="O997" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="998" spans="1:15">
+      <c r="A998" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B998" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C998" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D998" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E998" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F998" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G998" s="13">
+        <v>153000</v>
+      </c>
+      <c r="H998" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="I998" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="J998" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K998" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L998" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M998" s="13">
+        <v>59284015</v>
+      </c>
+      <c r="N998" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O998" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="999" spans="1:15">
+      <c r="A999" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B999" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C999" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D999" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E999" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F999" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G999" s="13">
+        <v>76000</v>
+      </c>
+      <c r="H999" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="I999" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="J999" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K999" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L999" s="13">
+        <v>39000000</v>
+      </c>
+      <c r="M999" s="13">
+        <v>35669017</v>
+      </c>
+      <c r="N999" s="13" t="s">
+        <v>1601</v>
+      </c>
+      <c r="O999" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:15">
+      <c r="A1000" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1000" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1000" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1000" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1000" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1000" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1000" s="13">
+        <v>168000</v>
+      </c>
+      <c r="H1000" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="I1000" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J1000" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K1000" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L1000" s="13">
+        <v>177200000</v>
+      </c>
+      <c r="M1000" s="13">
+        <v>225973340</v>
+      </c>
+      <c r="N1000" s="13" t="s">
+        <v>1602</v>
+      </c>
+      <c r="O1000" s="13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:15">
+      <c r="A1001" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1001" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1001" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1001" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1001" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1001" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G1001" s="13">
+        <v>131000</v>
+      </c>
+      <c r="H1001" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="I1001" s="13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J1001" s="13" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K1001" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1001" s="13">
+        <v>60000000</v>
+      </c>
+      <c r="M1001" s="13">
+        <v>113231078</v>
+      </c>
+      <c r="N1001" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O1001" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:15">
+      <c r="A1002" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1002" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1002" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1002" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1002" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1002" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G1002" s="13">
+        <v>58000</v>
+      </c>
+      <c r="H1002" s="13" t="s">
+        <v>633</v>
+      </c>
+      <c r="I1002" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="J1002" s="13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K1002" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1002" s="13">
+        <v>45000000</v>
+      </c>
+      <c r="M1002" s="13">
+        <v>185400345</v>
+      </c>
+      <c r="N1002" s="13" t="s">
+        <v>1604</v>
+      </c>
+      <c r="O1002" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:15">
+      <c r="A1003" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1003" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1003" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1003" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1003" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1003" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1003" s="13">
+        <v>75000</v>
+      </c>
+      <c r="H1003" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1003" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J1003" s="13" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K1003" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1003" s="13">
+        <v>33000000</v>
+      </c>
+      <c r="M1003" s="13">
+        <v>67234188</v>
+      </c>
+      <c r="N1003" s="13" t="s">
+        <v>1605</v>
+      </c>
+      <c r="O1003" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:15">
+      <c r="A1004" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1004" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1004" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1004" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1004" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1004" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G1004" s="13">
+        <v>109000</v>
+      </c>
+      <c r="H1004" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="I1004" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="J1004" s="13" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K1004" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1004" s="13"/>
+      <c r="M1004" s="13">
+        <v>9360514</v>
+      </c>
+      <c r="N1004" s="13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O1004" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:15">
+      <c r="A1005" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1005" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1005" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1005" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1005" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1005" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G1005" s="13">
+        <v>101000</v>
+      </c>
+      <c r="H1005" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="I1005" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="J1005" s="13" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K1005" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1005" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="M1005" s="13">
+        <v>10971298</v>
+      </c>
+      <c r="N1005" s="13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="O1005" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:15">
+      <c r="A1006" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1006" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1006" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1006" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1006" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1006" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G1006" s="13">
+        <v>213000</v>
+      </c>
+      <c r="H1006" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="I1006" s="13" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1006" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K1006" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1006" s="13">
+        <v>58000000</v>
+      </c>
+      <c r="M1006" s="13">
+        <v>100541806</v>
+      </c>
+      <c r="N1006" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O1006" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:15">
+      <c r="A1007" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1007" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1007" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1007" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1007" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1007" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1007" s="13">
+        <v>92000</v>
+      </c>
+      <c r="H1007" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1007" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="J1007" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K1007" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1007" s="13">
+        <v>13000000</v>
+      </c>
+      <c r="M1007" s="13">
+        <v>24646055</v>
+      </c>
+      <c r="N1007" s="13" t="s">
+        <v>1608</v>
+      </c>
+      <c r="O1007" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:15">
+      <c r="A1008" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1008" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1008" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1008" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1008" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1008" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G1008" s="13">
+        <v>105000</v>
+      </c>
+      <c r="H1008" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1008" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J1008" s="13" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K1008" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1008" s="13">
+        <v>7000000</v>
+      </c>
+      <c r="M1008" s="13">
+        <v>43069254</v>
+      </c>
+      <c r="N1008" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="O1008" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:15">
+      <c r="A1009" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1009" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1009" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1009" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1009" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1009" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G1009" s="13">
+        <v>118000</v>
+      </c>
+      <c r="H1009" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="I1009" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="J1009" s="13" t="s">
+        <v>1270</v>
+      </c>
+      <c r="K1009" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1009" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="M1009" s="13">
+        <v>47756590</v>
+      </c>
+      <c r="N1009" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O1009" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:15">
+      <c r="A1010" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1010" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1010" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1010" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1010" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1010" s="13">
+        <v>7</v>
+      </c>
+      <c r="G1010" s="13">
+        <v>49000</v>
+      </c>
+      <c r="H1010" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="I1010" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="J1010" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K1010" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1010" s="13">
+        <v>37500000</v>
+      </c>
+      <c r="M1010" s="13">
+        <v>125856180</v>
+      </c>
+      <c r="N1010" s="13" t="s">
+        <v>1611</v>
+      </c>
+      <c r="O1010" s="13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:15">
+      <c r="A1011" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1011" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1011" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1011" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1011" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1011" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G1011" s="13">
+        <v>23000</v>
+      </c>
+      <c r="H1011" s="13" t="s">
+        <v>642</v>
+      </c>
+      <c r="I1011" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J1011" s="13" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K1011" s="13" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L1011" s="13"/>
+      <c r="M1011" s="13">
+        <v>397783</v>
+      </c>
+      <c r="N1011" s="13" t="s">
+        <v>1612</v>
+      </c>
+      <c r="O1011" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:15">
+      <c r="A1012" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1012" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1012" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1012" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1012" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1012" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1012" s="13">
+        <v>120000</v>
+      </c>
+      <c r="H1012" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="I1012" s="13" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J1012" s="13" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K1012" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1012" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="M1012" s="13">
+        <v>306515884</v>
+      </c>
+      <c r="N1012" s="13" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O1012" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:15">
+      <c r="A1013" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1013" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1013" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1013" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1013" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1013" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1013" s="13">
+        <v>165000</v>
+      </c>
+      <c r="H1013" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1013" s="13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J1013" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K1013" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1013" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="M1013" s="13">
+        <v>134866593</v>
+      </c>
+      <c r="N1013" s="13" t="s">
+        <v>1614</v>
+      </c>
+      <c r="O1013" s="13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:15">
+      <c r="A1014" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1014" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1014" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1014" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1014" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1014" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G1014" s="13">
+        <v>235000</v>
+      </c>
+      <c r="H1014" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="I1014" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J1014" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="K1014" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1014" s="13">
+        <v>150000000</v>
+      </c>
+      <c r="M1014" s="13">
+        <v>490719763</v>
+      </c>
+      <c r="N1014" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1014" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:15">
+      <c r="A1015" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1015" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1015" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1015" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1015" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1015" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="G1015" s="13">
+        <v>99000</v>
+      </c>
+      <c r="H1015" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="I1015" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="J1015" s="13" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K1015" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1015" s="13">
+        <v>120000000</v>
+      </c>
+      <c r="M1015" s="13">
+        <v>221600160</v>
+      </c>
+      <c r="N1015" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1015" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:15">
+      <c r="A1016" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1016" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1016" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1016" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1016" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1016" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="G1016" s="13">
+        <v>87000</v>
+      </c>
+      <c r="H1016" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="I1016" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="J1016" s="13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="K1016" s="13" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L1016" s="13">
+        <v>18000000</v>
+      </c>
+      <c r="M1016" s="13">
+        <v>40656399</v>
+      </c>
+      <c r="N1016" s="13" t="s">
+        <v>1617</v>
+      </c>
+      <c r="O1016" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:15">
+      <c r="A1017" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1017" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1017" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1017" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1017" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1017" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G1017" s="13">
+        <v>82000</v>
+      </c>
+      <c r="H1017" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="I1017" s="13" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1017" s="13" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K1017" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1017" s="13">
+        <v>175000000</v>
+      </c>
+      <c r="M1017" s="13">
+        <v>383930656</v>
+      </c>
+      <c r="N1017" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="O1017" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:15">
+      <c r="A1018" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1018" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1018" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1018" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1018" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1018" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="G1018" s="13">
+        <v>49000</v>
+      </c>
+      <c r="H1018" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="I1018" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="J1018" s="13" t="s">
+        <v>1257</v>
+      </c>
+      <c r="K1018" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1018" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="M1018" s="13">
+        <v>47347283</v>
+      </c>
+      <c r="N1018" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="O1018" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:15">
+      <c r="A1019" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1019" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1019" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1019" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1019" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1019" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="G1019" s="13">
+        <v>88000</v>
+      </c>
+      <c r="H1019" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="I1019" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J1019" s="13" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K1019" s="13" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L1019" s="13">
+        <v>85000000</v>
+      </c>
+      <c r="M1019" s="13">
+        <v>346118277</v>
+      </c>
+      <c r="N1019" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1019" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:15">
+      <c r="A1020" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1020" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1020" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1020" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1020" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1020" s="13">
+        <v>5.4</v>
+      </c>
+      <c r="G1020" s="13">
+        <v>177000</v>
+      </c>
+      <c r="H1020" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="I1020" s="13" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J1020" s="13" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K1020" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1020" s="13">
+        <v>125000000</v>
+      </c>
+      <c r="M1020" s="13">
+        <v>409231607</v>
+      </c>
+      <c r="N1020" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O1020" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:15">
+      <c r="A1021" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1021" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1021" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1021" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1021" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1021" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1021" s="13">
+        <v>44000</v>
+      </c>
+      <c r="H1021" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1021" s="13" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J1021" s="13" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K1021" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1021" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1021" s="13">
+        <v>26800152</v>
+      </c>
+      <c r="N1021" s="13" t="s">
+        <v>1620</v>
+      </c>
+      <c r="O1021" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:15">
+      <c r="A1022" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1022" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1022" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1022" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1022" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1022" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G1022" s="13">
+        <v>51000</v>
+      </c>
+      <c r="H1022" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="I1022" s="13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J1022" s="13" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K1022" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1022" s="13">
+        <v>111000000</v>
+      </c>
+      <c r="M1022" s="13">
+        <v>296069199</v>
+      </c>
+      <c r="N1022" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O1022" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:15">
+      <c r="A1023" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1023" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1023" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1023" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1023" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1023" s="13">
+        <v>7.6</v>
+      </c>
+      <c r="G1023" s="13">
+        <v>62000</v>
+      </c>
+      <c r="H1023" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="I1023" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J1023" s="13" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K1023" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1023" s="13">
+        <v>38000000</v>
+      </c>
+      <c r="M1023" s="13">
+        <v>26351322</v>
+      </c>
+      <c r="N1023" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O1023" s="13">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:15">
+      <c r="A1024" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1024" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1024" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1024" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1024" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1024" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G1024" s="13">
+        <v>54000</v>
+      </c>
+      <c r="H1024" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="I1024" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="J1024" s="13" t="s">
+        <v>1281</v>
+      </c>
+      <c r="K1024" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1024" s="13">
+        <v>10500000</v>
+      </c>
+      <c r="M1024" s="13">
+        <v>27869129</v>
+      </c>
+      <c r="N1024" s="13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="O1024" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:15">
+      <c r="A1025" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1025" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1025" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1025" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1025" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1025" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="G1025" s="13">
+        <v>31000</v>
+      </c>
+      <c r="H1025" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="I1025" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J1025" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K1025" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1025" s="13">
+        <v>9000000</v>
+      </c>
+      <c r="M1025" s="13">
+        <v>22088533</v>
+      </c>
+      <c r="N1025" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O1025" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:15">
+      <c r="A1026" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1026" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1026" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1026" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1026" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1026" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="G1026" s="13">
+        <v>135000</v>
+      </c>
+      <c r="H1026" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="I1026" s="13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J1026" s="13" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K1026" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1026" s="13">
+        <v>80000000</v>
+      </c>
+      <c r="M1026" s="13">
+        <v>311950384</v>
+      </c>
+      <c r="N1026" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O1026" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:15">
+      <c r="A1027" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1027" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1027" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1027" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1027" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1027" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1027" s="13">
+        <v>63000</v>
+      </c>
+      <c r="H1027" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1027" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J1027" s="13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="K1027" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1027" s="13"/>
+      <c r="M1027" s="13">
+        <v>10060903</v>
+      </c>
+      <c r="N1027" s="13" t="s">
+        <v>1625</v>
+      </c>
+      <c r="O1027" s="13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:15">
+      <c r="A1028" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1028" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1028" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1028" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1028" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1028" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G1028" s="13">
+        <v>126000</v>
+      </c>
+      <c r="H1028" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="I1028" s="13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J1028" s="13" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K1028" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1028" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="M1028" s="13">
+        <v>56411585</v>
+      </c>
+      <c r="N1028" s="13" t="s">
+        <v>1626</v>
+      </c>
+      <c r="O1028" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:15">
+      <c r="A1029" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1029" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1029" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1029" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1029" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1029" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1029" s="13">
+        <v>37000</v>
+      </c>
+      <c r="H1029" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="I1029" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1029" s="13" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K1029" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1029" s="13"/>
+      <c r="M1029" s="13">
+        <v>956425</v>
+      </c>
+      <c r="N1029" s="13" t="s">
+        <v>1627</v>
+      </c>
+      <c r="O1029" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:15">
+      <c r="A1030" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1030" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1030" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1030" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1030" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1030" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G1030" s="13">
+        <v>38000</v>
+      </c>
+      <c r="H1030" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="I1030" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="J1030" s="13" t="s">
+        <v>1287</v>
+      </c>
+      <c r="K1030" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1030" s="13">
+        <v>6000000</v>
+      </c>
+      <c r="M1030" s="13">
+        <v>3187255</v>
+      </c>
+      <c r="N1030" s="13" t="s">
+        <v>1628</v>
+      </c>
+      <c r="O1030" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:15">
+      <c r="A1031" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1031" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1031" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1031" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1031" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1031" s="13">
+        <v>7</v>
+      </c>
+      <c r="G1031" s="13">
+        <v>106000</v>
+      </c>
+      <c r="H1031" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1031" s="13" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J1031" s="13" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K1031" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1031" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="M1031" s="13">
+        <v>145418070</v>
+      </c>
+      <c r="N1031" s="13" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O1031" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:15">
+      <c r="A1032" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1032" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1032" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1032" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1032" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="F1032" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G1032" s="13">
+        <v>39000</v>
+      </c>
+      <c r="H1032" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="I1032" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1032" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K1032" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L1032" s="13"/>
+      <c r="M1032" s="13">
+        <v>913331</v>
+      </c>
+      <c r="N1032" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="O1032" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:15">
+      <c r="A1033" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1033" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1033" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1033" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1033" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1033" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G1033" s="13">
+        <v>73000</v>
+      </c>
+      <c r="H1033" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1033" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J1033" s="13" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K1033" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L1033" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="M1033" s="13">
+        <v>102952888</v>
+      </c>
+      <c r="N1033" s="13" t="s">
+        <v>1630</v>
+      </c>
+      <c r="O1033" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:15">
+      <c r="A1034" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1034" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1034" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1034" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1034" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1034" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="G1034" s="13">
+        <v>60000</v>
+      </c>
+      <c r="H1034" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1034" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J1034" s="13" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K1034" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1034" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="M1034" s="13">
+        <v>43155261</v>
+      </c>
+      <c r="N1034" s="13" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O1034" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:15">
+      <c r="A1035" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1035" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1035" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1035" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1035" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1035" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G1035" s="13">
+        <v>143000</v>
+      </c>
+      <c r="H1035" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="I1035" s="13" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J1035" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="K1035" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1035" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="M1035" s="13">
+        <v>29820616</v>
+      </c>
+      <c r="N1035" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="O1035" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:15">
+      <c r="A1036" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1036" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1036" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1036" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1036" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1036" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="G1036" s="13">
+        <v>51000</v>
+      </c>
+      <c r="H1036" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="I1036" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="J1036" s="13" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K1036" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1036" s="13">
+        <v>5300000</v>
+      </c>
+      <c r="M1036" s="13">
+        <v>62198461</v>
+      </c>
+      <c r="N1036" s="13" t="s">
+        <v>1632</v>
+      </c>
+      <c r="O1036" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:15">
+      <c r="A1037" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1037" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1037" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1037" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1037" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1037" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1037" s="13">
+        <v>141000</v>
+      </c>
+      <c r="H1037" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1037" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J1037" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K1037" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1037" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="M1037" s="13">
+        <v>180419231</v>
+      </c>
+      <c r="N1037" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1037" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:15">
+      <c r="A1038" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1038" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1038" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1038" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1038" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1038" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G1038" s="13">
+        <v>35000</v>
+      </c>
+      <c r="H1038" s="13" t="s">
+        <v>669</v>
+      </c>
+      <c r="I1038" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J1038" s="13" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K1038" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1038" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="M1038" s="13">
+        <v>61621140</v>
+      </c>
+      <c r="N1038" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="O1038" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:15">
+      <c r="A1039" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1039" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1039" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1039" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1039" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1039" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G1039" s="13">
+        <v>64000</v>
+      </c>
+      <c r="H1039" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="I1039" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1039" s="13" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K1039" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1039" s="13">
+        <v>100000</v>
+      </c>
+      <c r="M1039" s="13">
+        <v>1951683</v>
+      </c>
+      <c r="N1039" s="13" t="s">
+        <v>1634</v>
+      </c>
+      <c r="O1039" s="13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:15">
+      <c r="A1040" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1040" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1040" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1040" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1040" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="F1040" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1040" s="13">
+        <v>9200</v>
+      </c>
+      <c r="H1040" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="I1040" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J1040" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K1040" s="13" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L1040" s="13"/>
+      <c r="M1040" s="13">
+        <v>14725</v>
+      </c>
+      <c r="N1040" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="O1040" s="13">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:15">
+      <c r="A1041" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1041" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1041" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1041" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1041" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1041" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="G1041" s="13">
+        <v>104000</v>
+      </c>
+      <c r="H1041" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1041" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J1041" s="13" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K1041" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1041" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="M1041" s="13">
+        <v>142337240</v>
+      </c>
+      <c r="N1041" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O1041" s="13">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:15">
+      <c r="A1042" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1042" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1042" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1042" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1042" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1042" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G1042" s="13">
+        <v>21000</v>
+      </c>
+      <c r="H1042" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1042" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J1042" s="13" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K1042" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1042" s="13"/>
+      <c r="M1042" s="13">
+        <v>2728446</v>
+      </c>
+      <c r="N1042" s="13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="O1042" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:15">
+      <c r="A1043" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1043" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1043" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1043" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1043" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1043" s="13">
+        <v>6.8</v>
+      </c>
+      <c r="G1043" s="13">
+        <v>79000</v>
+      </c>
+      <c r="H1043" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="I1043" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J1043" s="13" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K1043" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1043" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="M1043" s="13">
+        <v>56996304</v>
+      </c>
+      <c r="N1043" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="O1043" s="13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:15">
+      <c r="A1044" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1044" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1044" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1044" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1044" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1044" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="G1044" s="13">
+        <v>42000</v>
+      </c>
+      <c r="H1044" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="I1044" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J1044" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K1044" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1044" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1044" s="13">
+        <v>12751667</v>
+      </c>
+      <c r="N1044" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="O1044" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:15">
+      <c r="A1045" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1045" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1045" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1045" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1045" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1045" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1045" s="13">
+        <v>37000</v>
+      </c>
+      <c r="H1045" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="I1045" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J1045" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K1045" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1045" s="13"/>
+      <c r="M1045" s="13">
+        <v>19978189</v>
+      </c>
+      <c r="N1045" s="13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="O1045" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:15">
+      <c r="A1046" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1046" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1046" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1046" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1046" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1046" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1046" s="13">
+        <v>87000</v>
+      </c>
+      <c r="H1046" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="I1046" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="J1046" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="K1046" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1046" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="M1046" s="13">
+        <v>19735344</v>
+      </c>
+      <c r="N1046" s="13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="O1046" s="13">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:15">
+      <c r="A1047" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1047" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1047" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1047" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1047" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1047" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G1047" s="13">
+        <v>119000</v>
+      </c>
+      <c r="H1047" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="I1047" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J1047" s="13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K1047" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1047" s="13">
+        <v>80000000</v>
+      </c>
+      <c r="M1047" s="13">
+        <v>1034800131</v>
+      </c>
+      <c r="N1047" s="13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="O1047" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:15">
+      <c r="A1048" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1048" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1048" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1048" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1048" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1048" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G1048" s="13">
+        <v>79000</v>
+      </c>
+      <c r="H1048" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="I1048" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J1048" s="13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K1048" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1048" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1048" s="13">
+        <v>84918541</v>
+      </c>
+      <c r="N1048" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="O1048" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:15">
+      <c r="A1049" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1049" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1049" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1049" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1049" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1049" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="G1049" s="13">
+        <v>102000</v>
+      </c>
+      <c r="H1049" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1049" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="J1049" s="13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K1049" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1049" s="13">
+        <v>68000000</v>
+      </c>
+      <c r="M1049" s="13">
+        <v>55003890</v>
+      </c>
+      <c r="N1049" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1049" s="13">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:15">
+      <c r="A1050" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1050" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1050" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1050" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1050" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1050" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1050" s="13">
+        <v>48000</v>
+      </c>
+      <c r="H1050" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="I1050" s="13" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J1050" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K1050" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1050" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="M1050" s="13">
+        <v>16373843</v>
+      </c>
+      <c r="N1050" s="13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="O1050" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:15">
+      <c r="A1051" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1051" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1051" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1051" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1051" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1051" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1051" s="13">
+        <v>27000</v>
+      </c>
+      <c r="H1051" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="I1051" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="J1051" s="13" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K1051" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1051" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1051" s="13">
+        <v>15889124</v>
+      </c>
+      <c r="N1051" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1051" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:15">
+      <c r="A1052" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1052" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1052" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1052" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1052" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="F1052" s="13">
+        <v>3.3</v>
+      </c>
+      <c r="G1052" s="13">
+        <v>58000</v>
+      </c>
+      <c r="H1052" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="I1052" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="J1052" s="13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K1052" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1052" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="M1052" s="13">
+        <v>217776646</v>
+      </c>
+      <c r="N1052" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O1052" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:15">
+      <c r="A1053" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1053" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1053" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1053" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1053" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1053" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G1053" s="13">
+        <v>38000</v>
+      </c>
+      <c r="H1053" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="I1053" s="13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J1053" s="13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K1053" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1053" s="13"/>
+      <c r="M1053" s="13">
+        <v>3146831</v>
+      </c>
+      <c r="N1053" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="O1053" s="13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:15">
+      <c r="A1054" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1054" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1054" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1054" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1054" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1054" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="G1054" s="13">
+        <v>15000</v>
+      </c>
+      <c r="H1054" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="I1054" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J1054" s="13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K1054" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1054" s="13">
+        <v>12000000</v>
+      </c>
+      <c r="M1054" s="13">
+        <v>17768012</v>
+      </c>
+      <c r="N1054" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="O1054" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:15">
+      <c r="A1055" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1055" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1055" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1055" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1055" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F1055" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="G1055" s="13">
+        <v>66000</v>
+      </c>
+      <c r="H1055" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="I1055" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="J1055" s="13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K1055" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1055" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="M1055" s="13">
+        <v>227978645</v>
+      </c>
+      <c r="N1055" s="13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O1055" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:15">
+      <c r="A1056" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1056" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1056" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1056" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1056" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1056" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1056" s="13">
+        <v>35000</v>
+      </c>
+      <c r="H1056" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="I1056" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J1056" s="13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="K1056" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1056" s="13">
+        <v>19000000</v>
+      </c>
+      <c r="M1056" s="13">
+        <v>140552359</v>
+      </c>
+      <c r="N1056" s="13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O1056" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:15">
+      <c r="A1057" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1057" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1057" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1057" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1057" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1057" s="13">
+        <v>7.8</v>
+      </c>
+      <c r="G1057" s="13">
+        <v>53000</v>
+      </c>
+      <c r="H1057" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="I1057" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="J1057" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K1057" s="13" t="s">
+        <v>1576</v>
+      </c>
+      <c r="L1057" s="13"/>
+      <c r="M1057" s="13">
+        <v>42187665</v>
+      </c>
+      <c r="N1057" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O1057" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:15">
+      <c r="A1058" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1058" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1058" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1058" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1058" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1058" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G1058" s="13">
+        <v>50000</v>
+      </c>
+      <c r="H1058" s="13" t="s">
+        <v>689</v>
+      </c>
+      <c r="I1058" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J1058" s="13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="K1058" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1058" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M1058" s="13">
+        <v>16080475</v>
+      </c>
+      <c r="N1058" s="13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O1058" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:15">
+      <c r="A1059" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1059" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1059" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1059" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1059" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1059" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1059" s="13">
+        <v>11000</v>
+      </c>
+      <c r="H1059" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="I1059" s="13" t="s">
+        <v>690</v>
+      </c>
+      <c r="J1059" s="13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K1059" s="13" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L1059" s="13"/>
+      <c r="M1059" s="13">
+        <v>5012423</v>
+      </c>
+      <c r="N1059" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O1059" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:15">
+      <c r="A1060" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1060" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1060" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1060" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1060" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1060" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G1060" s="13">
+        <v>70000</v>
+      </c>
+      <c r="H1060" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1060" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="J1060" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K1060" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1060" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="M1060" s="13">
+        <v>62832209</v>
+      </c>
+      <c r="N1060" s="13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O1060" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:15">
+      <c r="A1061" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1061" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1061" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1061" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1061" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1061" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1061" s="13">
+        <v>117000</v>
+      </c>
+      <c r="H1061" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1061" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J1061" s="13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="K1061" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1061" s="13">
+        <v>18000000</v>
+      </c>
+      <c r="M1061" s="13">
+        <v>41681746</v>
+      </c>
+      <c r="N1061" s="13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="O1061" s="13">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:15">
+      <c r="A1062" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1062" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1062" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1062" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1062" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1062" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1062" s="13">
+        <v>58000</v>
+      </c>
+      <c r="H1062" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="I1062" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="J1062" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="K1062" s="13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L1062" s="13"/>
+      <c r="M1062" s="13">
+        <v>9493791</v>
+      </c>
+      <c r="N1062" s="13" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O1062" s="13">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:15">
+      <c r="A1063" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1063" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1063" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1063" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1063" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1063" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1063" s="13">
+        <v>8600</v>
+      </c>
+      <c r="H1063" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="I1063" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="J1063" s="13" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K1063" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1063" s="13">
+        <v>1200000</v>
+      </c>
+      <c r="M1063" s="13">
+        <v>4101699</v>
+      </c>
+      <c r="N1063" s="13" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O1063" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:15">
+      <c r="A1064" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1064" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1064" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1064" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1064" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1064" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G1064" s="13">
+        <v>52000</v>
+      </c>
+      <c r="H1064" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1064" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J1064" s="13" t="s">
+        <v>1318</v>
+      </c>
+      <c r="K1064" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1064" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1064" s="13">
+        <v>18598607</v>
+      </c>
+      <c r="N1064" s="13" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O1064" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:15">
+      <c r="A1065" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1065" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1065" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1065" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1065" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1065" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="G1065" s="13">
+        <v>27000</v>
+      </c>
+      <c r="H1065" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="I1065" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="J1065" s="13" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K1065" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1065" s="13"/>
+      <c r="M1065" s="13">
+        <v>2559939</v>
+      </c>
+      <c r="N1065" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O1065" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:15">
+      <c r="A1066" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1066" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1066" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1066" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1066" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1066" s="13">
+        <v>6.6</v>
+      </c>
+      <c r="G1066" s="13">
+        <v>25000</v>
+      </c>
+      <c r="H1066" s="13" t="s">
+        <v>697</v>
+      </c>
+      <c r="I1066" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="J1066" s="13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="K1066" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1066" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="M1066" s="13">
+        <v>4596705</v>
+      </c>
+      <c r="N1066" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O1066" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:15">
+      <c r="A1067" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1067" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1067" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1067" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1067" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1067" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G1067" s="13">
+        <v>29000</v>
+      </c>
+      <c r="H1067" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="I1067" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J1067" s="13" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K1067" s="13" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L1067" s="13"/>
+      <c r="M1067" s="13">
+        <v>3430165</v>
+      </c>
+      <c r="N1067" s="13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="O1067" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:15">
+      <c r="A1068" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1068" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1068" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1068" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1068" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F1068" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1068" s="13">
+        <v>65000</v>
+      </c>
+      <c r="H1068" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="I1068" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="J1068" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K1068" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1068" s="13">
+        <v>69000000</v>
+      </c>
+      <c r="M1068" s="13">
+        <v>180613824</v>
+      </c>
+      <c r="N1068" s="13" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1068" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:15">
+      <c r="A1069" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1069" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1069" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1069" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1069" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1069" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="G1069" s="13">
+        <v>12000</v>
+      </c>
+      <c r="H1069" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="I1069" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="J1069" s="13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K1069" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1069" s="13"/>
+      <c r="M1069" s="13">
+        <v>4372130</v>
+      </c>
+      <c r="N1069" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O1069" s="13">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:15">
+      <c r="A1070" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1070" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1070" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1070" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1070" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="F1070" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1070" s="13">
+        <v>68000</v>
+      </c>
+      <c r="H1070" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="I1070" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J1070" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K1070" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1070" s="13">
+        <v>22000000</v>
+      </c>
+      <c r="M1070" s="13">
+        <v>205035819</v>
+      </c>
+      <c r="N1070" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O1070" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:15">
+      <c r="A1071" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1071" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1071" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1071" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1071" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1071" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1071" s="13">
+        <v>15000</v>
+      </c>
+      <c r="H1071" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="I1071" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="J1071" s="13" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K1071" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1071" s="13"/>
+      <c r="M1071" s="13">
+        <v>1093077</v>
+      </c>
+      <c r="N1071" s="13" t="s">
+        <v>1662</v>
+      </c>
+      <c r="O1071" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:15">
+      <c r="A1072" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1072" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1072" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1072" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1072" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1072" s="13">
+        <v>5.8</v>
+      </c>
+      <c r="G1072" s="13">
+        <v>21000</v>
+      </c>
+      <c r="H1072" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1072" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="J1072" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K1072" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1072" s="13"/>
+      <c r="M1072" s="13">
+        <v>1647175</v>
+      </c>
+      <c r="N1072" s="13" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O1072" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:15">
+      <c r="A1073" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1073" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1073" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1073" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1073" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1073" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G1073" s="13">
+        <v>32000</v>
+      </c>
+      <c r="H1073" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="I1073" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J1073" s="13" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K1073" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1073" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="M1073" s="13">
+        <v>96942115</v>
+      </c>
+      <c r="N1073" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O1073" s="13">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:15">
+      <c r="A1074" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1074" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1074" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1074" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1074" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1074" s="13">
+        <v>7</v>
+      </c>
+      <c r="G1074" s="13">
+        <v>28000</v>
+      </c>
+      <c r="H1074" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="I1074" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J1074" s="13" t="s">
+        <v>1328</v>
+      </c>
+      <c r="K1074" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="L1074" s="13"/>
+      <c r="M1074" s="13">
+        <v>1463727</v>
+      </c>
+      <c r="N1074" s="13" t="s">
+        <v>1665</v>
+      </c>
+      <c r="O1074" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:15">
+      <c r="A1075" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1075" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1075" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1075" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1075" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1075" s="13">
+        <v>5.2</v>
+      </c>
+      <c r="G1075" s="13">
+        <v>44000</v>
+      </c>
+      <c r="H1075" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1075" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="J1075" s="13" t="s">
+        <v>1329</v>
+      </c>
+      <c r="K1075" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1075" s="13">
+        <v>19000000</v>
+      </c>
+      <c r="M1075" s="13">
+        <v>45158254</v>
+      </c>
+      <c r="N1075" s="13" t="s">
+        <v>1603</v>
+      </c>
+      <c r="O1075" s="13">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:15">
+      <c r="A1076" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1076" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1076" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1076" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1076" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="F1076" s="13">
+        <v>4.5</v>
+      </c>
+      <c r="G1076" s="13">
+        <v>39000</v>
+      </c>
+      <c r="H1076" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="I1076" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J1076" s="13" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K1076" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1076" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1076" s="13">
+        <v>83080890</v>
+      </c>
+      <c r="N1076" s="13" t="s">
+        <v>1666</v>
+      </c>
+      <c r="O1076" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:15">
+      <c r="A1077" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1077" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1077" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1077" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1077" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1077" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="G1077" s="13">
+        <v>2000</v>
+      </c>
+      <c r="H1077" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1077" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="J1077" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="K1077" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1077" s="13"/>
+      <c r="M1077" s="13">
+        <v>280668</v>
+      </c>
+      <c r="N1077" s="13" t="s">
+        <v>1667</v>
+      </c>
+      <c r="O1077" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:15">
+      <c r="A1078" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1078" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1078" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1078" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1078" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1078" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="G1078" s="13">
+        <v>24000</v>
+      </c>
+      <c r="H1078" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="I1078" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="J1078" s="13" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K1078" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1078" s="13"/>
+      <c r="M1078" s="13">
+        <v>1899615</v>
+      </c>
+      <c r="N1078" s="13" t="s">
+        <v>1668</v>
+      </c>
+      <c r="O1078" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:15">
+      <c r="A1079" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1079" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1079" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1079" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1079" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1079" s="13">
+        <v>7.5</v>
+      </c>
+      <c r="G1079" s="13">
+        <v>17000</v>
+      </c>
+      <c r="H1079" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="I1079" s="13" t="s">
+        <v>710</v>
+      </c>
+      <c r="J1079" s="13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K1079" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1079" s="13"/>
+      <c r="M1079" s="13">
+        <v>3436124</v>
+      </c>
+      <c r="N1079" s="13" t="s">
+        <v>1669</v>
+      </c>
+      <c r="O1079" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:15">
+      <c r="A1080" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1080" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1080" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1080" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1080" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1080" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="G1080" s="13">
+        <v>51000</v>
+      </c>
+      <c r="H1080" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="I1080" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="J1080" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K1080" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1080" s="13"/>
+      <c r="M1080" s="13">
+        <v>3862498</v>
+      </c>
+      <c r="N1080" s="13" t="s">
+        <v>1670</v>
+      </c>
+      <c r="O1080" s="13">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:15">
+      <c r="A1081" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1081" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1081" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1081" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1081" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1081" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1081" s="13">
+        <v>24000</v>
+      </c>
+      <c r="H1081" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="I1081" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J1081" s="13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K1081" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1081" s="13">
+        <v>70000000</v>
+      </c>
+      <c r="M1081" s="13">
+        <v>123081555</v>
+      </c>
+      <c r="N1081" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="O1081" s="13">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:15">
+      <c r="A1082" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1082" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1082" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1082" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1082" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1082" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1082" s="13">
+        <v>17000</v>
+      </c>
+      <c r="H1082" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="I1082" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="J1082" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="K1082" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1082" s="13"/>
+      <c r="M1082" s="13">
+        <v>1436751</v>
+      </c>
+      <c r="N1082" s="13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="O1082" s="13">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:15">
+      <c r="A1083" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1083" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1083" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1083" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1083" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1083" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G1083" s="13">
+        <v>42000</v>
+      </c>
+      <c r="H1083" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="I1083" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J1083" s="13" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K1083" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1083" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="M1083" s="13">
+        <v>34184504</v>
+      </c>
+      <c r="N1083" s="13" t="s">
+        <v>1672</v>
+      </c>
+      <c r="O1083" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:15">
+      <c r="A1084" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1084" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1084" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1084" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1084" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1084" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="G1084" s="13">
+        <v>28000</v>
+      </c>
+      <c r="H1084" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="I1084" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="J1084" s="13" t="s">
+        <v>1335</v>
+      </c>
+      <c r="K1084" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="L1084" s="13"/>
+      <c r="M1084" s="13">
+        <v>12294931</v>
+      </c>
+      <c r="N1084" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O1084" s="13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:15">
+      <c r="A1085" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1085" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1085" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1085" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1085" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1085" s="13">
+        <v>7</v>
+      </c>
+      <c r="G1085" s="13">
+        <v>41000</v>
+      </c>
+      <c r="H1085" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="I1085" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J1085" s="13" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K1085" s="13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L1085" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="M1085" s="13">
+        <v>26152835</v>
+      </c>
+      <c r="N1085" s="13" t="s">
+        <v>1673</v>
+      </c>
+      <c r="O1085" s="13">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:15">
+      <c r="A1086" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1086" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1086" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1086" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1086" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1086" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1086" s="13">
+        <v>7800</v>
+      </c>
+      <c r="H1086" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="I1086" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J1086" s="13" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K1086" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1086" s="13"/>
+      <c r="M1086" s="13">
+        <v>380553</v>
+      </c>
+      <c r="N1086" s="13" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O1086" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:15">
+      <c r="A1087" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1087" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1087" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1087" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1087" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1087" s="13">
+        <v>5.7</v>
+      </c>
+      <c r="G1087" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H1087" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="I1087" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="J1087" s="13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="K1087" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1087" s="13"/>
+      <c r="M1087" s="13">
+        <v>1813453</v>
+      </c>
+      <c r="N1087" s="13" t="s">
+        <v>1675</v>
+      </c>
+      <c r="O1087" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:15">
+      <c r="A1088" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1088" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1088" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1088" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1088" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1088" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="G1088" s="13">
+        <v>50000</v>
+      </c>
+      <c r="H1088" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="I1088" s="13" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J1088" s="13" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K1088" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1088" s="13">
+        <v>34000000</v>
+      </c>
+      <c r="M1088" s="13">
+        <v>23355100</v>
+      </c>
+      <c r="N1088" s="13" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O1088" s="13">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:15">
+      <c r="A1089" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1089" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1089" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1089" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1089" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1089" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G1089" s="13">
+        <v>24000</v>
+      </c>
+      <c r="H1089" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="I1089" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="J1089" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K1089" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1089" s="13"/>
+      <c r="M1089" s="13">
+        <v>1872950</v>
+      </c>
+      <c r="N1089" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1089" s="13">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:15">
+      <c r="A1090" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1090" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1090" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1090" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1090" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1090" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="G1090" s="13">
+        <v>22000</v>
+      </c>
+      <c r="H1090" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="I1090" s="13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="J1090" s="13" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K1090" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1090" s="13"/>
+      <c r="M1090" s="13">
+        <v>14510490</v>
+      </c>
+      <c r="N1090" s="13" t="s">
+        <v>1677</v>
+      </c>
+      <c r="O1090" s="13">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:15">
+      <c r="A1091" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1091" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1091" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1091" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1091" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1091" s="13">
+        <v>5.9</v>
+      </c>
+      <c r="G1091" s="13">
+        <v>22000</v>
+      </c>
+      <c r="H1091" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="I1091" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J1091" s="13" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K1091" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1091" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="M1091" s="13">
+        <v>55668698</v>
+      </c>
+      <c r="N1091" s="13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O1091" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:15">
+      <c r="A1092" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1092" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1092" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1092" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1092" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1092" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="G1092" s="13">
+        <v>31000</v>
+      </c>
+      <c r="H1092" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="I1092" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J1092" s="13" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K1092" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1092" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M1092" s="13">
+        <v>32917353</v>
+      </c>
+      <c r="N1092" s="13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="O1092" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:15">
+      <c r="A1093" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1093" s="13"/>
+      <c r="C1093" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1093" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1093" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1093" s="13">
+        <v>7.4</v>
+      </c>
+      <c r="G1093" s="13">
+        <v>15000</v>
+      </c>
+      <c r="H1093" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="I1093" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="J1093" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K1093" s="13" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L1093" s="13"/>
+      <c r="M1093" s="13">
+        <v>1196669</v>
+      </c>
+      <c r="N1093" s="13" t="s">
+        <v>1679</v>
+      </c>
+      <c r="O1093" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:15">
+      <c r="A1094" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1094" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1094" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1094" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1094" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1094" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="G1094" s="13">
+        <v>19000</v>
+      </c>
+      <c r="H1094" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1094" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J1094" s="13" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K1094" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1094" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="M1094" s="13">
+        <v>9204549</v>
+      </c>
+      <c r="N1094" s="13" t="s">
+        <v>1680</v>
+      </c>
+      <c r="O1094" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:15">
+      <c r="A1095" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1095" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1095" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1095" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1095" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1095" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="G1095" s="13">
+        <v>42000</v>
+      </c>
+      <c r="H1095" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="I1095" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J1095" s="13" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K1095" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1095" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="M1095" s="13">
+        <v>8503658</v>
+      </c>
+      <c r="N1095" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O1095" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:15">
+      <c r="A1096" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1096" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1096" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1096" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1096" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="F1096" s="13">
+        <v>3.9</v>
+      </c>
+      <c r="G1096" s="13">
+        <v>18000</v>
+      </c>
+      <c r="H1096" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="I1096" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="J1096" s="13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K1096" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1096" s="13"/>
+      <c r="M1096" s="13">
+        <v>4017852</v>
+      </c>
+      <c r="N1096" s="13" t="s">
+        <v>1681</v>
+      </c>
+      <c r="O1096" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:15">
+      <c r="A1097" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1097" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1097" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1097" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1097" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1097" s="13">
+        <v>6</v>
+      </c>
+      <c r="G1097" s="13">
+        <v>18000</v>
+      </c>
+      <c r="H1097" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="I1097" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="J1097" s="13" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K1097" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1097" s="13"/>
+      <c r="M1097" s="13">
+        <v>9200168</v>
+      </c>
+      <c r="N1097" s="13" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O1097" s="13">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:15">
+      <c r="A1098" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1098" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1098" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1098" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1098" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1098" s="13">
+        <v>8.2</v>
+      </c>
+      <c r="G1098" s="13">
+        <v>79000</v>
+      </c>
+      <c r="H1098" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="I1098" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J1098" s="13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K1098" s="13" t="s">
+        <v>1582</v>
+      </c>
+      <c r="L1098" s="13"/>
+      <c r="M1098" s="13">
+        <v>254158390</v>
+      </c>
+      <c r="N1098" s="13" t="s">
+        <v>1683</v>
+      </c>
+      <c r="O1098" s="13">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:15">
+      <c r="A1099" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1099" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1099" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1099" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1099" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F1099" s="13">
+        <v>7.2</v>
+      </c>
+      <c r="G1099" s="13">
+        <v>20000</v>
+      </c>
+      <c r="H1099" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1099" s="13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="J1099" s="13" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K1099" s="13" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1099" s="13"/>
+      <c r="M1099" s="13">
+        <v>5026154</v>
+      </c>
+      <c r="N1099" s="13" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O1099" s="13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:15">
+      <c r="A1100" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1100" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1100" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1100" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1100" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F1100" s="13">
+        <v>6.3</v>
+      </c>
+      <c r="G1100" s="13">
+        <v>13000</v>
+      </c>
+      <c r="H1100" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1100" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J1100" s="13" t="s">
+        <v>1348</v>
+      </c>
+      <c r="K1100" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1100" s="13"/>
+      <c r="M1100" s="13">
+        <v>2550321</v>
+      </c>
+      <c r="N1100" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1100" s="13">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:15">
+      <c r="A1101" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1101" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1101" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1101" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1101" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="F1101" s="13">
+        <v>7.9</v>
+      </c>
+      <c r="G1101" s="13">
+        <v>19000</v>
+      </c>
+      <c r="H1101" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="I1101" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J1101" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K1101" s="13" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L1101" s="13"/>
+      <c r="M1101" s="13">
+        <v>86252940</v>
+      </c>
+      <c r="N1101" s="13" t="s">
+        <v>1685</v>
+      </c>
+      <c r="O1101" s="13">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:15">
+      <c r="A1102" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1102" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1102" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1102" s="13">
+        <v>2017</v>
+      </c>
+      <c r="E1102" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1102" s="13">
+        <v>6.5</v>
+      </c>
+      <c r="G1102" s="13">
+        <v>17000</v>
+      </c>
+      <c r="H1102" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1102" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="J1102" s="13" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K1102" s="13" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1102" s="13"/>
+      <c r="M1102" s="13">
+        <v>3816527</v>
+      </c>
+      <c r="N1102" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1102" s="13">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -61173,7 +68779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O477"/>
   <sheetViews>
-    <sheetView topLeftCell="A382" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A472" workbookViewId="0">
       <selection activeCell="A390" sqref="A390:O477"/>
     </sheetView>
   </sheetViews>

--- a/movie_df.xlsx
+++ b/movie_df.xlsx
@@ -17135,7 +17135,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17496,10 +17499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1102"/>
+  <dimension ref="A1:O1184"/>
   <sheetViews>
-    <sheetView topLeftCell="A929" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A946" sqref="A946:O1102"/>
+    <sheetView topLeftCell="A1097" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1103" sqref="A1103:O1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -68765,6 +68768,3806 @@
       </c>
       <c r="O1102" s="13">
         <v>102</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:15">
+      <c r="A1103" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1103" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1103" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1103" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1103" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1103" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="G1103" s="14">
+        <v>3500</v>
+      </c>
+      <c r="H1103" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1103" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="J1103" s="14" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K1103" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1103" s="14"/>
+      <c r="M1103" s="14">
+        <v>237708</v>
+      </c>
+      <c r="N1103" s="14" t="s">
+        <v>1686</v>
+      </c>
+      <c r="O1103" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:15">
+      <c r="A1104" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1104" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1104" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1104" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1104" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1104" s="14">
+        <v>6</v>
+      </c>
+      <c r="G1104" s="14">
+        <v>19000</v>
+      </c>
+      <c r="H1104" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="I1104" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J1104" s="14" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K1104" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1104" s="14">
+        <v>60000000</v>
+      </c>
+      <c r="M1104" s="14">
+        <v>197183546</v>
+      </c>
+      <c r="N1104" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="O1104" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:15">
+      <c r="A1105" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1105" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="C1105" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1105" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1105" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1105" s="14">
+        <v>7</v>
+      </c>
+      <c r="G1105" s="14">
+        <v>2300</v>
+      </c>
+      <c r="H1105" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="I1105" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="J1105" s="14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K1105" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1105" s="14"/>
+      <c r="M1105" s="14">
+        <v>251541</v>
+      </c>
+      <c r="N1105" s="14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="O1105" s="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:15">
+      <c r="A1106" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1106" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1106" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1106" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1106" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1106" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="G1106" s="14">
+        <v>9800</v>
+      </c>
+      <c r="H1106" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="I1106" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J1106" s="14" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K1106" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1106" s="14"/>
+      <c r="M1106" s="14">
+        <v>3285916</v>
+      </c>
+      <c r="N1106" s="14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1106" s="14">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:15">
+      <c r="A1107" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1107" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1107" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1107" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1107" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1107" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="G1107" s="14">
+        <v>30000</v>
+      </c>
+      <c r="H1107" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="I1107" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="J1107" s="14" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K1107" s="14" t="s">
+        <v>1581</v>
+      </c>
+      <c r="L1107" s="14"/>
+      <c r="M1107" s="14">
+        <v>5104991</v>
+      </c>
+      <c r="N1107" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1107" s="14">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:15">
+      <c r="A1108" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1108" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1108" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1108" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1108" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="F1108" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="G1108" s="14">
+        <v>34000</v>
+      </c>
+      <c r="H1108" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="I1108" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J1108" s="14" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K1108" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1108" s="14">
+        <v>42000000</v>
+      </c>
+      <c r="M1108" s="14">
+        <v>60845711</v>
+      </c>
+      <c r="N1108" s="14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O1108" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:15">
+      <c r="A1109" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1109" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1109" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1109" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1109" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="F1109" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1109" s="14">
+        <v>35000</v>
+      </c>
+      <c r="H1109" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="I1109" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="J1109" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K1109" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L1109" s="14">
+        <v>22000000</v>
+      </c>
+      <c r="M1109" s="14">
+        <v>13025860</v>
+      </c>
+      <c r="N1109" s="14" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O1109" s="14">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:15">
+      <c r="A1110" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1110" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1110" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1110" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1110" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1110" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="G1110" s="14">
+        <v>33000</v>
+      </c>
+      <c r="H1110" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="I1110" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J1110" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K1110" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1110" s="14">
+        <v>21000000</v>
+      </c>
+      <c r="M1110" s="14">
+        <v>66558465</v>
+      </c>
+      <c r="N1110" s="14" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O1110" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:15">
+      <c r="A1111" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1111" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1111" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1111" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1111" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="F1111" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="G1111" s="14">
+        <v>41000</v>
+      </c>
+      <c r="H1111" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1111" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J1111" s="14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K1111" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1111" s="14">
+        <v>22000000</v>
+      </c>
+      <c r="M1111" s="14">
+        <v>41087017</v>
+      </c>
+      <c r="N1111" s="14" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O1111" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:15">
+      <c r="A1112" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1112" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1112" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1112" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1112" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F1112" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="G1112" s="14">
+        <v>25000</v>
+      </c>
+      <c r="H1112" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1112" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J1112" s="14" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K1112" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1112" s="14"/>
+      <c r="M1112" s="14">
+        <v>4477141</v>
+      </c>
+      <c r="N1112" s="14" t="s">
+        <v>1644</v>
+      </c>
+      <c r="O1112" s="14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:15">
+      <c r="A1113" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1113" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1113" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1113" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1113" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="F1113" s="14">
+        <v>6</v>
+      </c>
+      <c r="G1113" s="14">
+        <v>15000</v>
+      </c>
+      <c r="H1113" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="I1113" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J1113" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K1113" s="14" t="s">
+        <v>1584</v>
+      </c>
+      <c r="L1113" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="M1113" s="14">
+        <v>62547032</v>
+      </c>
+      <c r="N1113" s="14" t="s">
+        <v>1690</v>
+      </c>
+      <c r="O1113" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:15">
+      <c r="A1114" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1114" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1114" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1114" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1114" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F1114" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1114" s="14">
+        <v>7800</v>
+      </c>
+      <c r="H1114" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="I1114" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J1114" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K1114" s="14" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L1114" s="14"/>
+      <c r="M1114" s="14">
+        <v>10472180</v>
+      </c>
+      <c r="N1114" s="14" t="s">
+        <v>1691</v>
+      </c>
+      <c r="O1114" s="14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:15">
+      <c r="A1115" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1115" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1115" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1115" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1115" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1115" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1115" s="14">
+        <v>6900</v>
+      </c>
+      <c r="H1115" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1115" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J1115" s="14" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K1115" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1115" s="14">
+        <v>15000000</v>
+      </c>
+      <c r="M1115" s="14">
+        <v>6423605</v>
+      </c>
+      <c r="N1115" s="14" t="s">
+        <v>1692</v>
+      </c>
+      <c r="O1115" s="14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:15">
+      <c r="A1116" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1116" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1116" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1116" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1116" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1116" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="G1116" s="14">
+        <v>6200</v>
+      </c>
+      <c r="H1116" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="I1116" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J1116" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K1116" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1116" s="14">
+        <v>6500000</v>
+      </c>
+      <c r="M1116" s="14">
+        <v>60330833</v>
+      </c>
+      <c r="N1116" s="14" t="s">
+        <v>1623</v>
+      </c>
+      <c r="O1116" s="14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:15">
+      <c r="A1117" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1117" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1117" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1117" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1117" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1117" s="14">
+        <v>7.1</v>
+      </c>
+      <c r="G1117" s="14">
+        <v>26000</v>
+      </c>
+      <c r="H1117" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="I1117" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J1117" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K1117" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1117" s="14"/>
+      <c r="M1117" s="14">
+        <v>7401949</v>
+      </c>
+      <c r="N1117" s="14" t="s">
+        <v>1693</v>
+      </c>
+      <c r="O1117" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:15">
+      <c r="A1118" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1118" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1118" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1118" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1118" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1118" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="G1118" s="14">
+        <v>27000</v>
+      </c>
+      <c r="H1118" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="I1118" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J1118" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K1118" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1118" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="M1118" s="14">
+        <v>5042014</v>
+      </c>
+      <c r="N1118" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="O1118" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:15">
+      <c r="A1119" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1119" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1119" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1119" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1119" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1119" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="G1119" s="14">
+        <v>19000</v>
+      </c>
+      <c r="H1119" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1119" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J1119" s="14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K1119" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1119" s="14">
+        <v>25000000</v>
+      </c>
+      <c r="M1119" s="14">
+        <v>25601244</v>
+      </c>
+      <c r="N1119" s="14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="O1119" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:15">
+      <c r="A1120" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1120" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1120" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1120" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1120" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1120" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="G1120" s="14">
+        <v>35000</v>
+      </c>
+      <c r="H1120" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="I1120" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J1120" s="14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K1120" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1120" s="14">
+        <v>21000000</v>
+      </c>
+      <c r="M1120" s="14">
+        <v>34814102</v>
+      </c>
+      <c r="N1120" s="14" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O1120" s="14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:15">
+      <c r="A1121" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1121" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1121" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1121" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1121" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1121" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="G1121" s="14">
+        <v>7700</v>
+      </c>
+      <c r="H1121" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="I1121" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J1121" s="14" t="s">
+        <v>1367</v>
+      </c>
+      <c r="K1121" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1121" s="14">
+        <v>22000000</v>
+      </c>
+      <c r="M1121" s="14">
+        <v>40140972</v>
+      </c>
+      <c r="N1121" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1121" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:15">
+      <c r="A1122" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1122" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1122" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1122" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1122" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="F1122" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="G1122" s="14">
+        <v>32000</v>
+      </c>
+      <c r="H1122" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="I1122" s="14" t="s">
+        <v>751</v>
+      </c>
+      <c r="J1122" s="14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K1122" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1122" s="14"/>
+      <c r="M1122" s="14">
+        <v>4131358</v>
+      </c>
+      <c r="N1122" s="14" t="s">
+        <v>1697</v>
+      </c>
+      <c r="O1122" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:15">
+      <c r="A1123" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1123" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1123" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1123" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1123" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1123" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="G1123" s="14">
+        <v>12000</v>
+      </c>
+      <c r="H1123" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="I1123" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J1123" s="14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K1123" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1123" s="14">
+        <v>6400000</v>
+      </c>
+      <c r="M1123" s="14">
+        <v>6724365</v>
+      </c>
+      <c r="N1123" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="O1123" s="14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:15">
+      <c r="A1124" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1124" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1124" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1124" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1124" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1124" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="G1124" s="14">
+        <v>13000</v>
+      </c>
+      <c r="H1124" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="I1124" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="J1124" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K1124" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1124" s="14"/>
+      <c r="M1124" s="14">
+        <v>486623</v>
+      </c>
+      <c r="N1124" s="14" t="s">
+        <v>1699</v>
+      </c>
+      <c r="O1124" s="14">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:15">
+      <c r="A1125" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1125" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1125" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1125" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1125" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1125" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1125" s="14">
+        <v>14000</v>
+      </c>
+      <c r="H1125" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="I1125" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="J1125" s="14" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K1125" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1125" s="14">
+        <v>5400000</v>
+      </c>
+      <c r="M1125" s="14">
+        <v>12062146</v>
+      </c>
+      <c r="N1125" s="14" t="s">
+        <v>1700</v>
+      </c>
+      <c r="O1125" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:15">
+      <c r="A1126" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1126" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1126" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1126" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1126" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="F1126" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1126" s="14">
+        <v>14000</v>
+      </c>
+      <c r="H1126" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="I1126" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J1126" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K1126" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1126" s="14"/>
+      <c r="M1126" s="14">
+        <v>2096600</v>
+      </c>
+      <c r="N1126" s="14" t="s">
+        <v>1701</v>
+      </c>
+      <c r="O1126" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:15">
+      <c r="A1127" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1127" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1127" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1127" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1127" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F1127" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="G1127" s="14">
+        <v>46000</v>
+      </c>
+      <c r="H1127" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="I1127" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="J1127" s="14" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K1127" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1127" s="14">
+        <v>28000000</v>
+      </c>
+      <c r="M1127" s="14">
+        <v>130560428</v>
+      </c>
+      <c r="N1127" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="O1127" s="14">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:15">
+      <c r="A1128" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1128" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1128" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1128" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1128" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="F1128" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="G1128" s="14">
+        <v>31000</v>
+      </c>
+      <c r="H1128" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1128" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J1128" s="14" t="s">
+        <v>1374</v>
+      </c>
+      <c r="K1128" s="14" t="s">
+        <v>1586</v>
+      </c>
+      <c r="L1128" s="14"/>
+      <c r="M1128" s="14">
+        <v>3925992</v>
+      </c>
+      <c r="N1128" s="14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="O1128" s="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:15">
+      <c r="A1129" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1129" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1129" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1129" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1129" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="F1129" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="G1129" s="14">
+        <v>26000</v>
+      </c>
+      <c r="H1129" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="I1129" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J1129" s="14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K1129" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1129" s="14">
+        <v>38000000</v>
+      </c>
+      <c r="M1129" s="14">
+        <v>125427681</v>
+      </c>
+      <c r="N1129" s="14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="O1129" s="14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:15">
+      <c r="A1130" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1130" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1130" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1130" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1130" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1130" s="14">
+        <v>6</v>
+      </c>
+      <c r="G1130" s="14">
+        <v>9300</v>
+      </c>
+      <c r="H1130" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="I1130" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="J1130" s="14" t="s">
+        <v>1375</v>
+      </c>
+      <c r="K1130" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1130" s="14"/>
+      <c r="M1130" s="14">
+        <v>7425391</v>
+      </c>
+      <c r="N1130" s="14" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O1130" s="14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:15">
+      <c r="A1131" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1131" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1131" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1131" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1131" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1131" s="14">
+        <v>5</v>
+      </c>
+      <c r="G1131" s="14">
+        <v>19000</v>
+      </c>
+      <c r="H1131" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="I1131" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J1131" s="14" t="s">
+        <v>1376</v>
+      </c>
+      <c r="K1131" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1131" s="14">
+        <v>12000000</v>
+      </c>
+      <c r="M1131" s="14">
+        <v>23468586</v>
+      </c>
+      <c r="N1131" s="14" t="s">
+        <v>1705</v>
+      </c>
+      <c r="O1131" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:15">
+      <c r="A1132" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1132" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1132" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1132" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1132" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="F1132" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1132" s="14">
+        <v>21000</v>
+      </c>
+      <c r="H1132" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="I1132" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J1132" s="14" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K1132" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1132" s="14"/>
+      <c r="M1132" s="14">
+        <v>33109</v>
+      </c>
+      <c r="N1132" s="14" t="s">
+        <v>1706</v>
+      </c>
+      <c r="O1132" s="14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:15">
+      <c r="A1133" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1133" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1133" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1133" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1133" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1133" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="G1133" s="14">
+        <v>16000</v>
+      </c>
+      <c r="H1133" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="I1133" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J1133" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K1133" s="14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L1133" s="14"/>
+      <c r="M1133" s="14">
+        <v>7162617</v>
+      </c>
+      <c r="N1133" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1133" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:15">
+      <c r="A1134" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1134" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1134" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1134" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1134" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1134" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1134" s="14">
+        <v>8500</v>
+      </c>
+      <c r="H1134" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="I1134" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J1134" s="14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K1134" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1134" s="14"/>
+      <c r="M1134" s="14">
+        <v>970809</v>
+      </c>
+      <c r="N1134" s="14" t="s">
+        <v>1707</v>
+      </c>
+      <c r="O1134" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:15">
+      <c r="A1135" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1135" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1135" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1135" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1135" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="F1135" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1135" s="14">
+        <v>4900</v>
+      </c>
+      <c r="H1135" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="I1135" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="J1135" s="14" t="s">
+        <v>1380</v>
+      </c>
+      <c r="K1135" s="14" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L1135" s="14"/>
+      <c r="M1135" s="14">
+        <v>1332204</v>
+      </c>
+      <c r="N1135" s="14" t="s">
+        <v>1708</v>
+      </c>
+      <c r="O1135" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:15">
+      <c r="A1136" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1136" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1136" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1136" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1136" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1136" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G1136" s="14">
+        <v>22000</v>
+      </c>
+      <c r="H1136" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="I1136" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J1136" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K1136" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1136" s="14">
+        <v>12000000</v>
+      </c>
+      <c r="M1136" s="14">
+        <v>10116816</v>
+      </c>
+      <c r="N1136" s="14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="O1136" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:15">
+      <c r="A1137" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1137" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1137" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1137" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1137" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1137" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="G1137" s="14">
+        <v>14000</v>
+      </c>
+      <c r="H1137" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="I1137" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="J1137" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K1137" s="14" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L1137" s="14"/>
+      <c r="M1137" s="14">
+        <v>7704369</v>
+      </c>
+      <c r="N1137" s="14" t="s">
+        <v>1710</v>
+      </c>
+      <c r="O1137" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:15">
+      <c r="A1138" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1138" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1138" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1138" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1138" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1138" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="G1138" s="14">
+        <v>12000</v>
+      </c>
+      <c r="H1138" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="I1138" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="J1138" s="14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K1138" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1138" s="14"/>
+      <c r="M1138" s="14">
+        <v>2443584</v>
+      </c>
+      <c r="N1138" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="O1138" s="14">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:15">
+      <c r="A1139" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1139" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1139" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1139" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1139" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1139" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="G1139" s="14">
+        <v>7300</v>
+      </c>
+      <c r="H1139" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="I1139" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J1139" s="14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K1139" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L1139" s="14"/>
+      <c r="M1139" s="14">
+        <v>19015346</v>
+      </c>
+      <c r="N1139" s="14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="O1139" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:15">
+      <c r="A1140" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1140" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1140" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1140" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1140" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1140" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="G1140" s="14">
+        <v>4900</v>
+      </c>
+      <c r="H1140" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="I1140" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J1140" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="K1140" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1140" s="14"/>
+      <c r="M1140" s="14">
+        <v>2583</v>
+      </c>
+      <c r="N1140" s="14" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O1140" s="14">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:15">
+      <c r="A1141" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1141" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1141" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1141" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1141" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1141" s="14">
+        <v>7</v>
+      </c>
+      <c r="G1141" s="14">
+        <v>3700</v>
+      </c>
+      <c r="H1141" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1141" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="J1141" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K1141" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1141" s="14"/>
+      <c r="M1141" s="14">
+        <v>14410</v>
+      </c>
+      <c r="N1141" s="14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="O1141" s="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:15">
+      <c r="A1142" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1142" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1142" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1142" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1142" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1142" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G1142" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H1142" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="I1142" s="14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J1142" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K1142" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1142" s="14"/>
+      <c r="M1142" s="14">
+        <v>3338249</v>
+      </c>
+      <c r="N1142" s="14" t="s">
+        <v>1684</v>
+      </c>
+      <c r="O1142" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:15">
+      <c r="A1143" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1143" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C1143" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1143" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1143" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1143" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1143" s="14">
+        <v>3000</v>
+      </c>
+      <c r="H1143" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="I1143" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J1143" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="K1143" s="14" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L1143" s="14"/>
+      <c r="M1143" s="14">
+        <v>3322479</v>
+      </c>
+      <c r="N1143" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="O1143" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:15">
+      <c r="A1144" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1144" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1144" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1144" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1144" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1144" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1144" s="14">
+        <v>13000</v>
+      </c>
+      <c r="H1144" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1144" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J1144" s="14" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K1144" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L1144" s="14"/>
+      <c r="M1144" s="14">
+        <v>8737458</v>
+      </c>
+      <c r="N1144" s="14" t="s">
+        <v>1716</v>
+      </c>
+      <c r="O1144" s="14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:15">
+      <c r="A1145" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1145" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1145" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1145" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1145" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1145" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="G1145" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H1145" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="I1145" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J1145" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K1145" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1145" s="14"/>
+      <c r="M1145" s="14">
+        <v>385733</v>
+      </c>
+      <c r="N1145" s="14" t="s">
+        <v>1717</v>
+      </c>
+      <c r="O1145" s="14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:15">
+      <c r="A1146" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1146" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1146" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1146" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1146" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1146" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="G1146" s="14">
+        <v>13000</v>
+      </c>
+      <c r="H1146" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1146" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="J1146" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K1146" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1146" s="14"/>
+      <c r="M1146" s="14">
+        <v>8481997</v>
+      </c>
+      <c r="N1146" s="14" t="s">
+        <v>1718</v>
+      </c>
+      <c r="O1146" s="14">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:15">
+      <c r="A1147" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1147" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1147" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1147" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1147" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1147" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G1147" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H1147" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="I1147" s="14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J1147" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="K1147" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1147" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="M1147" s="14">
+        <v>2308355</v>
+      </c>
+      <c r="N1147" s="14" t="s">
+        <v>1719</v>
+      </c>
+      <c r="O1147" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:15">
+      <c r="A1148" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1148" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1148" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1148" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1148" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1148" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="G1148" s="14">
+        <v>23000</v>
+      </c>
+      <c r="H1148" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="I1148" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J1148" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="K1148" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1148" s="14">
+        <v>7400000</v>
+      </c>
+      <c r="M1148" s="14">
+        <v>29874280</v>
+      </c>
+      <c r="N1148" s="14" t="s">
+        <v>1702</v>
+      </c>
+      <c r="O1148" s="14">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:15">
+      <c r="A1149" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1149" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1149" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1149" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1149" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="F1149" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G1149" s="14">
+        <v>13000</v>
+      </c>
+      <c r="H1149" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="I1149" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J1149" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K1149" s="14" t="s">
+        <v>1583</v>
+      </c>
+      <c r="L1149" s="14"/>
+      <c r="M1149" s="14">
+        <v>109383972</v>
+      </c>
+      <c r="N1149" s="14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="O1149" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:15">
+      <c r="A1150" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1150" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1150" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1150" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1150" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1150" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="G1150" s="14">
+        <v>456000</v>
+      </c>
+      <c r="H1150" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="I1150" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J1150" s="14" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K1150" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1150" s="14">
+        <v>17000000</v>
+      </c>
+      <c r="M1150" s="14">
+        <v>350320413</v>
+      </c>
+      <c r="N1150" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1150" s="14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:15">
+      <c r="A1151" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1151" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1151" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1151" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1151" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1151" s="14">
+        <v>8.4</v>
+      </c>
+      <c r="G1151" s="14">
+        <v>897000</v>
+      </c>
+      <c r="H1151" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="I1151" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J1151" s="14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K1151" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1151" s="14">
+        <v>321000000</v>
+      </c>
+      <c r="M1151" s="14">
+        <v>2048359754</v>
+      </c>
+      <c r="N1151" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O1151" s="14">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:15">
+      <c r="A1152" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1152" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1152" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1152" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1152" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1152" s="14">
+        <v>7.7</v>
+      </c>
+      <c r="G1152" s="14">
+        <v>505000</v>
+      </c>
+      <c r="H1152" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="I1152" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="J1152" s="14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K1152" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L1152" s="14">
+        <v>110000000</v>
+      </c>
+      <c r="M1152" s="14">
+        <v>786470484</v>
+      </c>
+      <c r="N1152" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1152" s="14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:15">
+      <c r="A1153" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1153" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1153" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1153" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1153" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1153" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="G1153" s="14">
+        <v>476000</v>
+      </c>
+      <c r="H1153" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="I1153" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="J1153" s="14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="K1153" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1153" s="14">
+        <v>52000000</v>
+      </c>
+      <c r="M1153" s="14">
+        <v>911902649</v>
+      </c>
+      <c r="N1153" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1153" s="14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:15">
+      <c r="A1154" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1154" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1154" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1154" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1154" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="F1154" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G1154" s="14">
+        <v>661000</v>
+      </c>
+      <c r="H1154" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="I1154" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="J1154" s="14" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K1154" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1154" s="14">
+        <v>200000000</v>
+      </c>
+      <c r="M1154" s="14">
+        <v>1347597973</v>
+      </c>
+      <c r="N1154" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O1154" s="14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:15">
+      <c r="A1155" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1155" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1155" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1155" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1155" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1155" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G1155" s="14">
+        <v>259000</v>
+      </c>
+      <c r="H1155" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1155" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="J1155" s="14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K1155" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1155" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="M1155" s="14">
+        <v>80239658</v>
+      </c>
+      <c r="N1155" s="14" t="s">
+        <v>1722</v>
+      </c>
+      <c r="O1155" s="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:15">
+      <c r="A1156" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1156" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1156" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1156" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1156" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1156" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="G1156" s="14">
+        <v>136000</v>
+      </c>
+      <c r="H1156" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="I1156" s="14" t="s">
+        <v>1105</v>
+      </c>
+      <c r="J1156" s="14" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K1156" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="L1156" s="14">
+        <v>20000000</v>
+      </c>
+      <c r="M1156" s="14">
+        <v>97644617</v>
+      </c>
+      <c r="N1156" s="14" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O1156" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:15">
+      <c r="A1157" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1157" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1157" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1157" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1157" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1157" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="G1157" s="14">
+        <v>404000</v>
+      </c>
+      <c r="H1157" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1157" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J1157" s="14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K1157" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1157" s="14">
+        <v>160000000</v>
+      </c>
+      <c r="M1157" s="14">
+        <v>1148485886</v>
+      </c>
+      <c r="N1157" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1157" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:15">
+      <c r="A1158" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1158" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1158" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1158" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1158" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="F1158" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="G1158" s="14">
+        <v>388000</v>
+      </c>
+      <c r="H1158" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="I1158" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J1158" s="14" t="s">
+        <v>1398</v>
+      </c>
+      <c r="K1158" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1158" s="14">
+        <v>175000000</v>
+      </c>
+      <c r="M1158" s="14">
+        <v>582893671</v>
+      </c>
+      <c r="N1158" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1158" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:15">
+      <c r="A1159" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1159" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1159" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1159" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1159" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="F1159" s="14">
+        <v>8.4</v>
+      </c>
+      <c r="G1159" s="14">
+        <v>411000</v>
+      </c>
+      <c r="H1159" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="I1159" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J1159" s="14" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K1159" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1159" s="14">
+        <v>90000000</v>
+      </c>
+      <c r="M1159" s="14">
+        <v>375540831</v>
+      </c>
+      <c r="N1159" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="O1159" s="14">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:15">
+      <c r="A1160" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1160" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1160" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1160" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1160" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F1160" s="14">
+        <v>7.7</v>
+      </c>
+      <c r="G1160" s="14">
+        <v>303000</v>
+      </c>
+      <c r="H1160" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="I1160" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J1160" s="14" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K1160" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1160" s="14">
+        <v>178000000</v>
+      </c>
+      <c r="M1160" s="14">
+        <v>791657398</v>
+      </c>
+      <c r="N1160" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1160" s="14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:15">
+      <c r="A1161" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1161" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1161" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1161" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1161" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1161" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1161" s="14">
+        <v>387000</v>
+      </c>
+      <c r="H1161" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="I1161" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J1161" s="14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K1161" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L1161" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="M1161" s="14">
+        <v>856085151</v>
+      </c>
+      <c r="N1161" s="14" t="s">
+        <v>1724</v>
+      </c>
+      <c r="O1161" s="14">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:15">
+      <c r="A1162" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1162" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1162" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1162" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1162" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1162" s="14">
+        <v>8.2</v>
+      </c>
+      <c r="G1162" s="14">
+        <v>414000</v>
+      </c>
+      <c r="H1162" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="I1162" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J1162" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="K1162" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1162" s="14">
+        <v>23000000</v>
+      </c>
+      <c r="M1162" s="14">
+        <v>321752656</v>
+      </c>
+      <c r="N1162" s="14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="O1162" s="14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:15">
+      <c r="A1163" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1163" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1163" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1163" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1163" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1163" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="G1163" s="14">
+        <v>152000</v>
+      </c>
+      <c r="H1163" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="I1163" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J1163" s="14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="K1163" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1163" s="14">
+        <v>30000000</v>
+      </c>
+      <c r="M1163" s="14">
+        <v>238539198</v>
+      </c>
+      <c r="N1163" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1163" s="14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:15">
+      <c r="A1164" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1164" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1164" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1164" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1164" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1164" s="14">
+        <v>7</v>
+      </c>
+      <c r="G1164" s="14">
+        <v>333000</v>
+      </c>
+      <c r="H1164" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="I1164" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J1164" s="14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K1164" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1164" s="14">
+        <v>162000000</v>
+      </c>
+      <c r="M1164" s="14">
+        <v>622674139</v>
+      </c>
+      <c r="N1164" s="14" t="s">
+        <v>1721</v>
+      </c>
+      <c r="O1164" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:15">
+      <c r="A1165" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1165" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1165" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1165" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1165" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1165" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="G1165" s="14">
+        <v>236000</v>
+      </c>
+      <c r="H1165" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="I1165" s="14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J1165" s="14" t="s">
+        <v>1404</v>
+      </c>
+      <c r="K1165" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1165" s="14">
+        <v>15000000</v>
+      </c>
+      <c r="M1165" s="14">
+        <v>93413709</v>
+      </c>
+      <c r="N1165" s="14" t="s">
+        <v>1610</v>
+      </c>
+      <c r="O1165" s="14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:15">
+      <c r="A1166" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1166" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1166" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1166" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1166" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1166" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="G1166" s="14">
+        <v>120000</v>
+      </c>
+      <c r="H1166" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="I1166" s="14" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J1166" s="14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K1166" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1166" s="14">
+        <v>88000000</v>
+      </c>
+      <c r="M1166" s="14">
+        <v>160542134</v>
+      </c>
+      <c r="N1166" s="14" t="s">
+        <v>1615</v>
+      </c>
+      <c r="O1166" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:15">
+      <c r="A1167" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1167" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1167" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1167" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1167" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1167" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1167" s="14">
+        <v>33000</v>
+      </c>
+      <c r="H1167" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="I1167" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J1167" s="14" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K1167" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1167" s="14">
+        <v>29000000</v>
+      </c>
+      <c r="M1167" s="14">
+        <v>25957482</v>
+      </c>
+      <c r="N1167" s="14" t="s">
+        <v>1726</v>
+      </c>
+      <c r="O1167" s="14">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:15">
+      <c r="A1168" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1168" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1168" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1168" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1168" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="F1168" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="G1168" s="14">
+        <v>306000</v>
+      </c>
+      <c r="H1168" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="I1168" s="14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J1168" s="14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K1168" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1168" s="14">
+        <v>275000000</v>
+      </c>
+      <c r="M1168" s="14">
+        <v>392924807</v>
+      </c>
+      <c r="N1168" s="14" t="s">
+        <v>1727</v>
+      </c>
+      <c r="O1168" s="14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:15">
+      <c r="A1169" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1169" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1169" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1169" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1169" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1169" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1169" s="14">
+        <v>26000</v>
+      </c>
+      <c r="H1169" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="I1169" s="14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J1169" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K1169" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1169" s="14">
+        <v>2800000</v>
+      </c>
+      <c r="M1169" s="14">
+        <v>27365467</v>
+      </c>
+      <c r="N1169" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="O1169" s="14">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:15">
+      <c r="A1170" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1170" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1170" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1170" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1170" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1170" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1170" s="14">
+        <v>36000</v>
+      </c>
+      <c r="H1170" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="I1170" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="J1170" s="14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K1170" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1170" s="14">
+        <v>8500000</v>
+      </c>
+      <c r="M1170" s="14">
+        <v>2053469</v>
+      </c>
+      <c r="N1170" s="14" t="s">
+        <v>1729</v>
+      </c>
+      <c r="O1170" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:15">
+      <c r="A1171" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1171" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1171" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1171" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1171" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1171" s="14">
+        <v>7</v>
+      </c>
+      <c r="G1171" s="14">
+        <v>99000</v>
+      </c>
+      <c r="H1171" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="I1171" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="J1171" s="14" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K1171" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1171" s="14">
+        <v>30000000</v>
+      </c>
+      <c r="M1171" s="14">
+        <v>80509622</v>
+      </c>
+      <c r="N1171" s="14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="O1171" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:15">
+      <c r="A1172" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1172" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1172" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1172" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1172" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1172" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="G1172" s="14">
+        <v>292000</v>
+      </c>
+      <c r="H1172" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="I1172" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="J1172" s="14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K1172" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1172" s="14">
+        <v>40000000</v>
+      </c>
+      <c r="M1172" s="14">
+        <v>43070915</v>
+      </c>
+      <c r="N1172" s="14" t="s">
+        <v>1597</v>
+      </c>
+      <c r="O1172" s="14">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:15">
+      <c r="A1173" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1173" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1173" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1173" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1173" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1173" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1173" s="14">
+        <v>173000</v>
+      </c>
+      <c r="H1173" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="I1173" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J1173" s="14" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K1173" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1173" s="14">
+        <v>69000000</v>
+      </c>
+      <c r="M1173" s="14">
+        <v>151572634</v>
+      </c>
+      <c r="N1173" s="14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O1173" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:15">
+      <c r="A1174" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1174" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1174" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1174" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1174" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1174" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="G1174" s="14">
+        <v>350000</v>
+      </c>
+      <c r="H1174" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="I1174" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J1174" s="14" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K1174" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1174" s="14">
+        <v>36000000</v>
+      </c>
+      <c r="M1174" s="14">
+        <v>436188866</v>
+      </c>
+      <c r="N1174" s="14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="O1174" s="14">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:15">
+      <c r="A1175" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1175" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1175" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1175" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1175" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1175" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="G1175" s="14">
+        <v>85000</v>
+      </c>
+      <c r="H1175" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="I1175" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="J1175" s="14" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K1175" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1175" s="14">
+        <v>75000000</v>
+      </c>
+      <c r="M1175" s="14">
+        <v>395618157</v>
+      </c>
+      <c r="N1175" s="14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O1175" s="14">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:15">
+      <c r="A1176" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1176" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1176" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1176" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1176" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1176" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G1176" s="14">
+        <v>67000</v>
+      </c>
+      <c r="H1176" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1176" s="14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="J1176" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K1176" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1176" s="14">
+        <v>30000000</v>
+      </c>
+      <c r="M1176" s="14">
+        <v>49562710</v>
+      </c>
+      <c r="N1176" s="14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="O1176" s="14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:15">
+      <c r="A1177" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1177" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1177" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1177" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1177" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1177" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="G1177" s="14">
+        <v>97000</v>
+      </c>
+      <c r="H1177" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="I1177" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="J1177" s="14" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K1177" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1177" s="14">
+        <v>48000000</v>
+      </c>
+      <c r="M1177" s="14">
+        <v>120556201</v>
+      </c>
+      <c r="N1177" s="14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="O1177" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:15">
+      <c r="A1178" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1178" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1178" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1178" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1178" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1178" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="G1178" s="14">
+        <v>277000</v>
+      </c>
+      <c r="H1178" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="I1178" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J1178" s="14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="K1178" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1178" s="14">
+        <v>170000000</v>
+      </c>
+      <c r="M1178" s="14">
+        <v>1310466296</v>
+      </c>
+      <c r="N1178" s="14" t="s">
+        <v>1596</v>
+      </c>
+      <c r="O1178" s="14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:15">
+      <c r="A1179" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1179" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1179" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1179" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1179" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1179" s="14">
+        <v>7.4</v>
+      </c>
+      <c r="G1179" s="14">
+        <v>68000</v>
+      </c>
+      <c r="H1179" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="I1179" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="J1179" s="14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K1179" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1179" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="M1179" s="14">
+        <v>14347433</v>
+      </c>
+      <c r="N1179" s="14" t="s">
+        <v>1734</v>
+      </c>
+      <c r="O1179" s="14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:15">
+      <c r="A1180" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1180" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1180" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1180" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1180" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F1180" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="G1180" s="14">
+        <v>197000</v>
+      </c>
+      <c r="H1180" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="I1180" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="J1180" s="14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K1180" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1180" s="14">
+        <v>70000000</v>
+      </c>
+      <c r="M1180" s="14">
+        <v>297718711</v>
+      </c>
+      <c r="N1180" s="14" t="s">
+        <v>1616</v>
+      </c>
+      <c r="O1180" s="14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:15">
+      <c r="A1181" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1181" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1181" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1181" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1181" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="F1181" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="G1181" s="14">
+        <v>66000</v>
+      </c>
+      <c r="H1181" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="I1181" s="14" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J1181" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="K1181" s="14" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L1181" s="14">
+        <v>20000000</v>
+      </c>
+      <c r="M1181" s="14">
+        <v>7942093</v>
+      </c>
+      <c r="N1181" s="14" t="s">
+        <v>1735</v>
+      </c>
+      <c r="O1181" s="14">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:15">
+      <c r="A1182" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1182" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1182" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D1182" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1182" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1182" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="G1182" s="14">
+        <v>181000</v>
+      </c>
+      <c r="H1182" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="I1182" s="14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J1182" s="14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K1182" s="14" t="s">
+        <v>1588</v>
+      </c>
+      <c r="L1182" s="14">
+        <v>15000000</v>
+      </c>
+      <c r="M1182" s="14">
+        <v>95918706</v>
+      </c>
+      <c r="N1182" s="14" t="s">
+        <v>1682</v>
+      </c>
+      <c r="O1182" s="14">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:15">
+      <c r="A1183" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1183" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1183" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1183" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1183" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1183" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="G1183" s="14">
+        <v>157000</v>
+      </c>
+      <c r="H1183" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="I1183" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J1183" s="14" t="s">
+        <v>1419</v>
+      </c>
+      <c r="K1183" s="14" t="s">
+        <v>1569</v>
+      </c>
+      <c r="L1183" s="14">
+        <v>130000000</v>
+      </c>
+      <c r="M1183" s="14">
+        <v>530259473</v>
+      </c>
+      <c r="N1183" s="14" t="s">
+        <v>1696</v>
+      </c>
+      <c r="O1183" s="14">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:15">
+      <c r="A1184" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1184" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1184" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1184" s="14">
+        <v>2018</v>
+      </c>
+      <c r="E1184" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1184" s="14">
+        <v>6.5</v>
+      </c>
+      <c r="G1184" s="14">
+        <v>68000</v>
+      </c>
+      <c r="H1184" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="I1184" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="J1184" s="14" t="s">
+        <v>1420</v>
+      </c>
+      <c r="K1184" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L1184" s="14">
+        <v>6000000</v>
+      </c>
+      <c r="M1184" s="14">
+        <v>1555203</v>
+      </c>
+      <c r="N1184" s="14" t="s">
+        <v>1736</v>
+      </c>
+      <c r="O1184" s="14">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
